--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>ConceptScheme URI</t>
   </si>
   <si>
-    <t>https://www.ieawindtask43.org/ontoforge/simple-skos-taxonomy/</t>
+    <t>https://www.ieawindtask43.org/ontoforge/life-cycle-stages-taxonomy/</t>
   </si>
   <si>
     <t>PREFIX</t>
@@ -112,17 +112,62 @@
     <t>skos:note@en</t>
   </si>
   <si>
-    <t>Level One Concept</t>
-  </si>
-  <si>
-    <t>Level Two Concept</t>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Wind farm planning phase</t>
+  </si>
+  <si>
+    <t>Wind Resource Assessment</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Preconstruction</t>
+  </si>
+  <si>
+    <t>End Of Life</t>
+  </si>
+  <si>
+    <t>This includes everything that may happen at the end of life, including recycling, ........</t>
+  </si>
+  <si>
+    <t>Prospecting</t>
+  </si>
+  <si>
+    <t>Rough energy yield estimates and comparisons at different potential sites</t>
+  </si>
+  <si>
+    <t>Permitting</t>
+  </si>
+  <si>
+    <t>Environmental permits, land permits</t>
+  </si>
+  <si>
+    <t>sst:LifeCycleStage</t>
+  </si>
+  <si>
+    <t>Life Cycle Stage</t>
+  </si>
+  <si>
+    <t>Time period in the life cycle of an asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sst:Construction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction </t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -163,13 +208,28 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -178,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -207,9 +267,6 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -217,6 +274,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,7 +497,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.0"/>
+    <col customWidth="1" min="1" max="1" width="26.25"/>
     <col customWidth="1" min="2" max="2" width="39.0"/>
     <col customWidth="1" min="3" max="3" width="30.38"/>
     <col customWidth="1" min="4" max="4" width="23.5"/>
@@ -761,21 +824,23 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="str">
-        <f t="shared" ref="A16:A17" si="1">IF(ISBLANK($B16),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B16," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
-        <v>sst:LevelOneConcept</v>
+        <f t="shared" ref="A16:A24" si="1">IF(ISBLANK($B16),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B16," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
+        <v>sst:Planning</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
+      <c r="C16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="9"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="11"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="12"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -783,16 +848,16 @@
     <row r="17">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>sst:LevelTwoConcept</v>
+        <v>sst:WindResourceAssessment</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="str">
         <f>A16</f>
-        <v>sst:LevelOneConcept</v>
+        <v>sst:Planning</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -803,6 +868,99 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>sst:Operation</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>sst:Preconstruction</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>sst:EndOfLife</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>sst:Prospecting</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>sst:Permitting</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -40,16 +40,19 @@
     <t>skos:prefLabel</t>
   </si>
   <si>
-    <t>Simple SKOS Taxonomy</t>
+    <t>WEPLS</t>
   </si>
   <si>
     <t>dct:title</t>
   </si>
   <si>
+    <t>Wind Energy Project Life-cycle Stages</t>
+  </si>
+  <si>
     <t>dct:description</t>
   </si>
   <si>
-    <t>A simple SKOS Taxonomy of some concepts</t>
+    <t>A simple SKOS Taxonomy of life-cycle stages</t>
   </si>
   <si>
     <t>dct:creator</t>
@@ -112,12 +115,21 @@
     <t>skos:note@en</t>
   </si>
   <si>
+    <t>Life Cycle Stage</t>
+  </si>
+  <si>
+    <t>Time period in the life cycle of an asset</t>
+  </si>
+  <si>
     <t>Planning</t>
   </si>
   <si>
     <t>Wind farm planning phase</t>
   </si>
   <si>
+    <t>sst:LifeCycleStage</t>
+  </si>
+  <si>
     <t>Wind Resource Assessment</t>
   </si>
   <si>
@@ -130,7 +142,7 @@
     <t>End Of Life</t>
   </si>
   <si>
-    <t>This includes everything that may happen at the end of life, including recycling, ........</t>
+    <t>This includes everything that may happen at the end of life, including recycling</t>
   </si>
   <si>
     <t>Prospecting</t>
@@ -145,22 +157,10 @@
     <t>Environmental permits, land permits</t>
   </si>
   <si>
-    <t>sst:LifeCycleStage</t>
-  </si>
-  <si>
-    <t>Life Cycle Stage</t>
-  </si>
-  <si>
-    <t>Time period in the life cycle of an asset</t>
-  </si>
-  <si>
     <t xml:space="preserve">sst:Construction </t>
   </si>
   <si>
     <t xml:space="preserve">Construction </t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
 </sst>
 </file>
@@ -199,13 +199,7 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -214,7 +208,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -266,20 +266,20 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,7 +499,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="26.25"/>
     <col customWidth="1" min="2" max="2" width="39.0"/>
-    <col customWidth="1" min="3" max="3" width="30.38"/>
+    <col customWidth="1" min="3" max="3" width="63.5"/>
     <col customWidth="1" min="4" max="4" width="23.5"/>
     <col customWidth="1" min="5" max="5" width="23.38"/>
   </cols>
@@ -615,7 +615,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -632,10 +632,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -652,7 +652,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="3"/>
@@ -670,7 +670,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="3"/>
@@ -688,10 +688,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -708,10 +708,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -728,10 +728,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -780,67 +780,67 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="str">
-        <f t="shared" ref="A16:A24" si="1">IF(ISBLANK($B16),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B16," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
-        <v>sst:Planning</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="6" t="s">
+        <f t="shared" ref="A16:A23" si="1">IF(ISBLANK($B16),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B16," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
+        <v>sst:LifeCycleStage</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="10"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="11"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -848,23 +848,24 @@
     <row r="17">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>sst:WindResourceAssessment</v>
+        <v>sst:Planning</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="str">
-        <f>A16</f>
-        <v>sst:Planning</v>
+        <v>36</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="K17" s="13"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -872,95 +873,122 @@
     <row r="18">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>sst:Operation</v>
+        <v>sst:WindResourceAssessment</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="str">
+        <f>A17</f>
+        <v>sst:Planning</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>sst:Preconstruction</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>37</v>
+        <v>sst:Operation</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>sst:EndOfLife</v>
-      </c>
-      <c r="B20" s="12" t="s">
+        <v>sst:Preconstruction</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>sst:Prospecting</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>41</v>
+        <v>sst:EndOfLife</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>sst:Permitting</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>43</v>
+        <v>sst:Prospecting</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
+        <v>sst:Permitting</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="str">
+        <f>IF(ISBLANK($B25),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B25," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
         <v/>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3"/>
-    </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="12" t="s">
-        <v>49</v>
-      </c>
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4"/>
+      <c r="B27" s="9"/>
+    </row>
+    <row r="29">
+      <c r="E29" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -11,24 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="94">
   <si>
     <t>ConceptScheme URI</t>
   </si>
   <si>
-    <t>https://www.ieawindtask43.org/ontoforge/life-cycle-stages-taxonomy/</t>
+    <t>https://www.ieawindtask43.org/ontoforge/life-cycle-phase-process-taxonomy/</t>
   </si>
   <si>
     <t>PREFIX</t>
   </si>
   <si>
-    <t>sst</t>
-  </si>
-  <si>
-    <t>pav</t>
-  </si>
-  <si>
-    <t>http://purl.org/pav/</t>
+    <t>lcppt</t>
   </si>
   <si>
     <t>dct</t>
@@ -37,137 +31,275 @@
     <t>http://purl.org/dc/terms/</t>
   </si>
   <si>
+    <t>owl</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/07/owl#</t>
+  </si>
+  <si>
+    <t>nace2</t>
+  </si>
+  <si>
+    <t>http://data.europa.eu/ux2/nace2/nace2</t>
+  </si>
+  <si>
     <t>skos:prefLabel</t>
   </si>
   <si>
-    <t>WEPLS</t>
+    <t>LCPPT</t>
   </si>
   <si>
     <t>dct:title</t>
   </si>
   <si>
+    <t>Life Cycle Phase and Process Taxonomy</t>
+  </si>
+  <si>
+    <t>dct:description</t>
+  </si>
+  <si>
+    <t>A simple SKOS Taxonomy of life-cycle stages</t>
+  </si>
+  <si>
+    <t>dct:creator</t>
+  </si>
+  <si>
+    <t>IEA Wind Task 43</t>
+  </si>
+  <si>
+    <t>dct:contributor</t>
+  </si>
+  <si>
+    <t>dct:license</t>
+  </si>
+  <si>
+    <t>http://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t>owl:versionInfo</t>
+  </si>
+  <si>
+    <t>0.1.0</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>skos:definition@en</t>
+  </si>
+  <si>
+    <t>skos:altLabel(separator=",")</t>
+  </si>
+  <si>
+    <t>skos:broader(separator=",")</t>
+  </si>
+  <si>
+    <t>skos:exactMatch(separator=",")</t>
+  </si>
+  <si>
+    <t>skos:closeMatch(separator=",")</t>
+  </si>
+  <si>
+    <t>skos:related(separator=",")</t>
+  </si>
+  <si>
+    <t>dct:creator(separator=",")</t>
+  </si>
+  <si>
+    <t>dct:contributor(separator=",")</t>
+  </si>
+  <si>
+    <t>dct:bibliographicCitation(separator=",")</t>
+  </si>
+  <si>
+    <t>dct:references(separator=",")</t>
+  </si>
+  <si>
+    <t>skos:editorialNote@en</t>
+  </si>
+  <si>
+    <t>skos:note@en</t>
+  </si>
+  <si>
+    <t>Life Cycle Phase</t>
+  </si>
+  <si>
     <t>Wind Energy Project Life-cycle Stages</t>
   </si>
   <si>
-    <t>dct:description</t>
-  </si>
-  <si>
-    <t>A simple SKOS Taxonomy of life-cycle stages</t>
-  </si>
-  <si>
-    <t>dct:creator</t>
-  </si>
-  <si>
-    <t>dct:contributor</t>
-  </si>
-  <si>
-    <t>pav:version</t>
-  </si>
-  <si>
-    <t>0.0.1</t>
-  </si>
-  <si>
-    <t>pav:createdOn</t>
-  </si>
-  <si>
-    <t>2020-12-01T00:00:00+01:00</t>
-  </si>
-  <si>
-    <t>pav:lastUpdatedOn</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>skos:definition@en</t>
-  </si>
-  <si>
-    <t>skos:altLabel(separator=",")</t>
-  </si>
-  <si>
-    <t>skos:broader(separator=",")</t>
-  </si>
-  <si>
-    <t>skos:exactMatch(separator=",")</t>
-  </si>
-  <si>
-    <t>skos:closeMatch(separator=",")</t>
-  </si>
-  <si>
-    <t>skos:related(separator=",")</t>
-  </si>
-  <si>
-    <t>dct:creator(separator=",")</t>
-  </si>
-  <si>
-    <t>dct:contributor(separator=",")</t>
-  </si>
-  <si>
-    <t>dct:bibliographicCitation(separator=",")</t>
-  </si>
-  <si>
-    <t>dct:references(separator=",")</t>
-  </si>
-  <si>
-    <t>skos:editorialNote@en</t>
-  </si>
-  <si>
-    <t>skos:note@en</t>
-  </si>
-  <si>
-    <t>Life Cycle Stage</t>
-  </si>
-  <si>
-    <t>Time period in the life cycle of an asset</t>
+    <t>Feasibility</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Design, Planning &amp; Permitting</t>
+  </si>
+  <si>
+    <t>Pre-Construction</t>
+  </si>
+  <si>
+    <t>Purchase, Procurement</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Commissioning</t>
+  </si>
+  <si>
+    <t>Operation &amp; Maintenance</t>
+  </si>
+  <si>
+    <t>Middle of life</t>
+  </si>
+  <si>
+    <t>Decommissioning</t>
+  </si>
+  <si>
+    <t>End of life</t>
+  </si>
+  <si>
+    <t>Reference Project Life Cycle Phase</t>
+  </si>
+  <si>
+    <t>Project phase is a collection of logically related project activities (processes) that culminates in the completion of one or more deliverables. Project Life Cycle is the series of phases that a project passes through from its start to its completion.</t>
+  </si>
+  <si>
+    <t>https://www.pmi.org/</t>
+  </si>
+  <si>
+    <t>urn:ISBN:9781628256659</t>
+  </si>
+  <si>
+    <t>This phase determines if the business case is valid and if the organization has the capability to deliver the intended outcome.</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Planning and analysis lead to the design of the project deliverable that will be developed.</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>Construction of the deliverable with integrated quality assurance activities is conducted.</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Final quality review and inspection of deliverables are carried out before transition, go-live, or acceptance by the customer.</t>
+  </si>
+  <si>
+    <t>Deploy</t>
+  </si>
+  <si>
+    <t>Project deliverables are put into use and transitional activities required for sustainment, benefits realization, and organizational change management are completed.</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>The project is closed, project knowledge and artifacts are archived, project team members are released, and contracts are closed.</t>
+  </si>
+  <si>
+    <t>All Project Phases</t>
+  </si>
+  <si>
+    <t>Product Life Cycle Phase</t>
+  </si>
+  <si>
+    <t>Conception</t>
+  </si>
+  <si>
+    <t>Realisation</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>All Product Phases</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Product Process</t>
+  </si>
+  <si>
+    <t>Product process is not unique to project management, which results in the specification and provision of a particular product, service or result, and which varies depending on the particular project deliverable.</t>
+  </si>
+  <si>
+    <t>Delivery Process</t>
+  </si>
+  <si>
+    <t>Wind Turbine Product Process</t>
+  </si>
+  <si>
+    <t>Wind Power Plant Process</t>
+  </si>
+  <si>
+    <t>Project Management Process</t>
+  </si>
+  <si>
+    <t>Project management process is specific to project management. It determines how the activities selected for the project are managed.</t>
+  </si>
+  <si>
+    <t>Supporting Process</t>
+  </si>
+  <si>
+    <t>Supporting process is a process not unique to project management and which provides relevant and valuable support to product and project management processes in such disciplines as logistics, finance, accounting and safety.</t>
+  </si>
+  <si>
+    <t>Cross-cutting Process, Supporting Activities</t>
+  </si>
+  <si>
+    <t>Process Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projects that follow a process-based approach may adopt project process groups. Project management processes can be organized into logical groupings of project management inputs, tools and techniques, and outputs that are tailored to meet the needs of the organization, stakeholders, and the project. Groups of processes are not project phases. The Process Groups interact within each phase of a project life cycle. In a process-based approach, the output of one process generally becomes an input to another process or is a deliverable of the project or project phase. </t>
+  </si>
+  <si>
+    <t>Initiation</t>
+  </si>
+  <si>
+    <t>Those processes performed to define a new project or a new phase of an existing project by obtaining authorization to start the project or phase.</t>
   </si>
   <si>
     <t>Planning</t>
   </si>
   <si>
-    <t>Wind farm planning phase</t>
-  </si>
-  <si>
-    <t>sst:LifeCycleStage</t>
-  </si>
-  <si>
-    <t>Wind Resource Assessment</t>
-  </si>
-  <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>Preconstruction</t>
-  </si>
-  <si>
-    <t>End Of Life</t>
-  </si>
-  <si>
-    <t>This includes everything that may happen at the end of life, including recycling</t>
-  </si>
-  <si>
-    <t>Prospecting</t>
-  </si>
-  <si>
-    <t>Rough energy yield estimates and comparisons at different potential sites</t>
-  </si>
-  <si>
-    <t>Permitting</t>
-  </si>
-  <si>
-    <t>Environmental permits, land permits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sst:Construction </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construction </t>
+    <t>Those processes required to establish the scope of the project, refine the objectives, and define the course of action required to attain the objectives that the project was undertaken to achieve.</t>
+  </si>
+  <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>Those processes performed to complete the work defined in the project management plan to satisfy the project requirements.</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Performance &amp; Control</t>
+  </si>
+  <si>
+    <t>Those processes required to track, review, and regulate the progress and performance of the project; identify any areas in which changes to the plan are required; and initiate the corresponding changes.</t>
+  </si>
+  <si>
+    <t>Closure</t>
+  </si>
+  <si>
+    <t>Those processes performed to formally complete or close a project, phase, or contract.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -195,10 +327,26 @@
     </font>
     <font>
       <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
       <color rgb="FF1155CC"/>
       <name val="Helvetica"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -213,9 +361,24 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -238,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -257,29 +420,62 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,6 +698,8 @@
     <col customWidth="1" min="3" max="3" width="63.5"/>
     <col customWidth="1" min="4" max="4" width="23.5"/>
     <col customWidth="1" min="5" max="5" width="23.38"/>
+    <col customWidth="1" min="9" max="9" width="21.5"/>
+    <col customWidth="1" min="11" max="11" width="21.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,8 +729,9 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
+      <c r="C2" s="2" t="str">
+        <f>B1</f>
+        <v>https://www.ieawindtask43.org/ontoforge/life-cycle-phase-process-taxonomy/</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -572,10 +771,10 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3"/>
@@ -592,12 +791,14 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -634,7 +835,7 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="3"/>
@@ -654,7 +855,9 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -670,9 +873,11 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -688,11 +893,9 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B10" s="9"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -707,11 +910,11 @@
       <c r="N10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="10" t="s">
         <v>19</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -727,11 +930,11 @@
       <c r="N11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
+      <c r="A12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -780,92 +983,89 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="str">
-        <f t="shared" ref="A16:A23" si="1">IF(ISBLANK($B16),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B16," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
-        <v>sst:LifeCycleStage</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="11"/>
+      <c r="A16" s="1" t="str">
+        <f t="shared" ref="A16:A50" si="1">IF(ISBLANK($B16),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B16," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
+        <v>lcppt:LifeCyclePhase</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="12"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="13"/>
+      <c r="K16" s="18"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>sst:Planning</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:WindEnergyProjectLife-cycleStages</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="4" t="s">
-        <v>38</v>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="4" t="str">
+        <f>A16</f>
+        <v>lcppt:LifeCyclePhase</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="12"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="13"/>
+      <c r="K17" s="18"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -873,23 +1073,23 @@
     <row r="18">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>sst:WindResourceAssessment</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="str">
-        <f>A17</f>
-        <v>sst:Planning</v>
+        <v>lcppt:Feasibility</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="4" t="str">
+        <f t="shared" ref="E18:E24" si="2">$A$17</f>
+        <v>lcppt:WindEnergyProjectLife-cycleStages</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="K18" s="18"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -897,106 +1097,1588 @@
     <row r="19">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>sst:Operation</v>
-      </c>
-      <c r="B19" s="4" t="s">
+        <v>lcppt:Development</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="E19" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>lcppt:WindEnergyProjectLife-cycleStages</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>sst:Preconstruction</v>
-      </c>
-      <c r="B20" s="10" t="s">
+        <v>lcppt:Pre-Construction</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>lcppt:WindEnergyProjectLife-cycleStages</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>sst:EndOfLife</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="10" t="s">
+        <v>lcppt:Construction</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>lcppt:WindEnergyProjectLife-cycleStages</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>sst:Prospecting</v>
-      </c>
-      <c r="B22" s="10" t="s">
+        <v>lcppt:Commissioning</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>lcppt:WindEnergyProjectLife-cycleStages</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>sst:Permitting</v>
-      </c>
-      <c r="B23" s="10" t="s">
+        <v>lcppt:Operation-Maintenance</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="E23" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>lcppt:WindEnergyProjectLife-cycleStages</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:Decommissioning</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>lcppt:WindEnergyProjectLife-cycleStages</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:ReferenceProjectLifeCyclePhase</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="4" t="str">
+        <f>A16</f>
+        <v>lcppt:LifeCyclePhase</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:Feasibility</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="str">
-        <f>IF(ISBLANK($B25),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B25," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3"/>
+      <c r="C26" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="4" t="str">
+        <f t="shared" ref="E26:E32" si="3">$A$25</f>
+        <v>lcppt:ReferenceProjectLifeCyclePhase</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
     </row>
     <row r="27">
-      <c r="A27" s="4"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:Design</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>lcppt:ReferenceProjectLifeCyclePhase</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:Build</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>lcppt:ReferenceProjectLifeCyclePhase</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
     </row>
     <row r="29">
-      <c r="E29" s="4"/>
+      <c r="A29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:Test</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>lcppt:ReferenceProjectLifeCyclePhase</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:Deploy</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>lcppt:ReferenceProjectLifeCyclePhase</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:Close</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>lcppt:ReferenceProjectLifeCyclePhase</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:AllProjectPhases</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>lcppt:ReferenceProjectLifeCyclePhase</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:ProductLifeCyclePhase</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="4" t="str">
+        <f>A16</f>
+        <v>lcppt:LifeCyclePhase</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:Conception</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="4" t="str">
+        <f t="shared" ref="E34:E38" si="4">$A$33</f>
+        <v>lcppt:ProductLifeCyclePhase</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:Design</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>lcppt:ProductLifeCyclePhase</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:Realisation</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>lcppt:ProductLifeCyclePhase</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:Service</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>lcppt:ProductLifeCyclePhase</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:AllProductPhases</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>lcppt:ProductLifeCyclePhase</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:Process</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:ProductProcess</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="4" t="str">
+        <f t="shared" ref="E40:E41" si="5">A39</f>
+        <v>lcppt:Process</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:WindTurbineProductProcess</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>lcppt:ProductProcess</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:WindPowerPlantProcess</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="4" t="str">
+        <f>A40</f>
+        <v>lcppt:ProductProcess</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:ProjectManagementProcess</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="16"/>
+      <c r="E43" s="4" t="str">
+        <f>A39</f>
+        <v>lcppt:Process</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:SupportingProcess</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="4" t="str">
+        <f>A39</f>
+        <v>lcppt:Process</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:ProcessGroup</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:Initiation</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="E46" s="4" t="str">
+        <f t="shared" ref="E46:E50" si="6">$A$45</f>
+        <v>lcppt:ProcessGroup</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:Planning</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="16"/>
+      <c r="E47" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>lcppt:ProcessGroup</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:Execution</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>lcppt:ProcessGroup</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:Performance-Control</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="16"/>
+      <c r="E49" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>lcppt:ProcessGroup</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:Closure</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="16"/>
+      <c r="E50" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>lcppt:ProcessGroup</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3"/>
+      <c r="B51" s="21"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="3"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="3"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="3"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="3"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="3"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="3"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1"/>
+      <c r="B74" s="24"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1"/>
+      <c r="B75" s="24"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="3"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="3"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="3"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="3"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="3"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="3"/>
+      <c r="B82" s="19"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="3"/>
+      <c r="B83" s="19"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="3"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="3"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="3"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="3"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="3"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="3"/>
+      <c r="B89" s="4"/>
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="3"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="3"/>
+      <c r="B91" s="4"/>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="3"/>
+      <c r="B92" s="4"/>
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="3"/>
+      <c r="B93" s="4"/>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1"/>
+      <c r="B94" s="12"/>
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1"/>
+      <c r="B95" s="12"/>
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1"/>
+      <c r="B96" s="12"/>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="3"/>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="3"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="3"/>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="3"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="3"/>
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="3"/>
+      <c r="B102" s="4"/>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="3"/>
+      <c r="B103" s="4"/>
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="3"/>
+      <c r="B104" s="4"/>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="3"/>
+      <c r="B105" s="4"/>
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="3"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="3"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="3"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="3"/>
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="3"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="3"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="3"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="3"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="3"/>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="22"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="23"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="22"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="23"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="22"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="23"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="3"/>
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="3"/>
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="3"/>
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="3"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="3"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="3"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="3"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="3"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="3"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="3"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="3"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="3"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="3"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="3"/>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="3"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="3"/>
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="3"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="3"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="3"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="3"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="3"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="3"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="3"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="3"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="3"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="3"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="3"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="3"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="3"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="3"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="3"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="3"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="3"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="3"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="3"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="3"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B1"/>
-    <hyperlink r:id="rId2" ref="C2"/>
-    <hyperlink r:id="rId3" ref="C3"/>
-    <hyperlink r:id="rId4" ref="C4"/>
+    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink r:id="rId3" ref="C4"/>
+    <hyperlink r:id="rId4" ref="C5"/>
+    <hyperlink r:id="rId5" ref="B11"/>
+    <hyperlink r:id="rId6" ref="I25"/>
+    <hyperlink r:id="rId7" ref="I26"/>
+    <hyperlink r:id="rId8" ref="I27"/>
+    <hyperlink r:id="rId9" ref="I28"/>
+    <hyperlink r:id="rId10" ref="I29"/>
+    <hyperlink r:id="rId11" ref="I30"/>
+    <hyperlink r:id="rId12" ref="I31"/>
+    <hyperlink r:id="rId13" ref="I45"/>
+    <hyperlink r:id="rId14" ref="I46"/>
+    <hyperlink r:id="rId15" ref="I47"/>
+    <hyperlink r:id="rId16" ref="I48"/>
+    <hyperlink r:id="rId17" ref="I49"/>
+    <hyperlink r:id="rId18" ref="I50"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>
--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>Wind Energy Project Life-cycle Stages</t>
+  </si>
+  <si>
+    <t>Identification</t>
+  </si>
+  <si>
+    <t>Screening, Site Selection, Pilot Study</t>
   </si>
   <si>
     <t>Feasibility</t>
@@ -1027,7 +1033,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="str">
-        <f t="shared" ref="A16:A50" si="1">IF(ISBLANK($B16),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B16," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
+        <f t="shared" ref="A16:A51" si="1">IF(ISBLANK($B16),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B16," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
         <v>lcppt:LifeCyclePhase</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -1073,15 +1079,17 @@
     <row r="18">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Feasibility</v>
+        <v>lcppt:Identification</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
+      <c r="D18" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="E18" s="4" t="str">
-        <f t="shared" ref="E18:E24" si="2">$A$17</f>
+        <f t="shared" ref="E18:E25" si="2">$A$17</f>
         <v>lcppt:WindEnergyProjectLife-cycleStages</v>
       </c>
       <c r="F18" s="3"/>
@@ -1097,15 +1105,13 @@
     <row r="19">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Development</v>
+        <v>lcppt:Feasibility</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="15"/>
-      <c r="D19" s="20" t="s">
-        <v>40</v>
-      </c>
+      <c r="D19" s="16"/>
       <c r="E19" s="4" t="str">
         <f t="shared" si="2"/>
         <v>lcppt:WindEnergyProjectLife-cycleStages</v>
@@ -1123,7 +1129,7 @@
     <row r="20">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Pre-Construction</v>
+        <v>lcppt:Development</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>41</v>
@@ -1149,13 +1155,15 @@
     <row r="21">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Construction</v>
+        <v>lcppt:Pre-Construction</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="15"/>
-      <c r="D21" s="20"/>
+      <c r="D21" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="2"/>
         <v>lcppt:WindEnergyProjectLife-cycleStages</v>
@@ -1173,10 +1181,10 @@
     <row r="22">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Commissioning</v>
+        <v>lcppt:Construction</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="20"/>
@@ -1197,15 +1205,13 @@
     <row r="23">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Operation-Maintenance</v>
+        <v>lcppt:Commissioning</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="15"/>
-      <c r="D23" s="20" t="s">
-        <v>46</v>
-      </c>
+      <c r="D23" s="20"/>
       <c r="E23" s="4" t="str">
         <f t="shared" si="2"/>
         <v>lcppt:WindEnergyProjectLife-cycleStages</v>
@@ -1223,7 +1229,7 @@
     <row r="24">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Decommissioning</v>
+        <v>lcppt:Operation-Maintenance</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>47</v>
@@ -1247,60 +1253,56 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>lcppt:ReferenceProjectLifeCyclePhase</v>
-      </c>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:Decommissioning</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="16"/>
       <c r="E25" s="4" t="str">
-        <f>A16</f>
-        <v>lcppt:LifeCyclePhase</v>
+        <f t="shared" si="2"/>
+        <v>lcppt:WindEnergyProjectLife-cycleStages</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="I25" s="17"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="18" t="s">
-        <v>52</v>
-      </c>
+      <c r="K25" s="18"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>lcppt:Feasibility</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>38</v>
+      <c r="A26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:ReferenceProjectLifeCyclePhase</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="4" t="str">
-        <f t="shared" ref="E26:E32" si="3">$A$25</f>
-        <v>lcppt:ReferenceProjectLifeCyclePhase</v>
+        <f>A16</f>
+        <v>lcppt:LifeCyclePhase</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -1309,28 +1311,28 @@
     <row r="27">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Design</v>
+        <v>lcppt:Feasibility</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E27:E33" si="3">$A$26</f>
         <v>lcppt:ReferenceProjectLifeCyclePhase</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -1339,7 +1341,7 @@
     <row r="28">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Build</v>
+        <v>lcppt:Design</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>56</v>
@@ -1356,11 +1358,11 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -1369,7 +1371,7 @@
     <row r="29">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Test</v>
+        <v>lcppt:Build</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>58</v>
@@ -1386,11 +1388,11 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -1399,7 +1401,7 @@
     <row r="30">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Deploy</v>
+        <v>lcppt:Test</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>60</v>
@@ -1416,11 +1418,11 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -1429,7 +1431,7 @@
     <row r="31">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Close</v>
+        <v>lcppt:Deploy</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>62</v>
@@ -1446,11 +1448,11 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -1459,12 +1461,14 @@
     <row r="32">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:AllProjectPhases</v>
-      </c>
-      <c r="B32" s="21" t="s">
+        <v>lcppt:Close</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="21"/>
+      <c r="C32" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="D32" s="16"/>
       <c r="E32" s="4" t="str">
         <f t="shared" si="3"/>
@@ -1473,26 +1477,30 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="22"/>
+      <c r="I32" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="J32" s="3"/>
-      <c r="K32" s="23"/>
+      <c r="K32" s="18" t="s">
+        <v>54</v>
+      </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>lcppt:ProductLifeCyclePhase</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>65</v>
+      <c r="A33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:AllProjectPhases</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="16"/>
       <c r="E33" s="4" t="str">
-        <f>A16</f>
-        <v>lcppt:LifeCyclePhase</v>
+        <f t="shared" si="3"/>
+        <v>lcppt:ReferenceProjectLifeCyclePhase</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1505,18 +1513,18 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>lcppt:Conception</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>66</v>
+      <c r="A34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:ProductLifeCyclePhase</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="16"/>
       <c r="E34" s="4" t="str">
-        <f t="shared" ref="E34:E38" si="4">$A$33</f>
-        <v>lcppt:ProductLifeCyclePhase</v>
+        <f>A16</f>
+        <v>lcppt:LifeCyclePhase</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1531,15 +1539,15 @@
     <row r="35">
       <c r="A35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Design</v>
+        <v>lcppt:Conception</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="16"/>
       <c r="E35" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E35:E39" si="4">$A$34</f>
         <v>lcppt:ProductLifeCyclePhase</v>
       </c>
       <c r="F35" s="3"/>
@@ -1555,10 +1563,10 @@
     <row r="36">
       <c r="A36" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Realisation</v>
+        <v>lcppt:Design</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="16"/>
@@ -1579,10 +1587,10 @@
     <row r="37">
       <c r="A37" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Service</v>
+        <v>lcppt:Realisation</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="16"/>
@@ -1603,10 +1611,10 @@
     <row r="38">
       <c r="A38" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:AllProductPhases</v>
+        <v>lcppt:Service</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="16"/>
@@ -1625,22 +1633,25 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>lcppt:Process</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="15"/>
+      <c r="A39" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:AllProductPhases</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="21"/>
       <c r="D39" s="16"/>
-      <c r="E39" s="4"/>
+      <c r="E39" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>lcppt:ProductLifeCyclePhase</v>
+      </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="17"/>
+      <c r="I39" s="22"/>
       <c r="J39" s="3"/>
-      <c r="K39" s="18"/>
+      <c r="K39" s="23"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -1648,21 +1659,14 @@
     <row r="40">
       <c r="A40" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:ProductProcess</v>
+        <v>lcppt:Process</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="4" t="str">
-        <f t="shared" ref="E40:E41" si="5">A39</f>
-        <v>lcppt:Process</v>
-      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -1676,16 +1680,20 @@
     <row r="41">
       <c r="A41" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:WindTurbineProductProcess</v>
+        <v>lcppt:ProductProcess</v>
       </c>
       <c r="B41" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
+      <c r="D41" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="E41" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>lcppt:ProductProcess</v>
+        <f t="shared" ref="E41:E42" si="5">A40</f>
+        <v>lcppt:Process</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -1700,15 +1708,15 @@
     <row r="42">
       <c r="A42" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:WindPowerPlantProcess</v>
+        <v>lcppt:WindTurbineProductProcess</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="16"/>
       <c r="E42" s="4" t="str">
-        <f>A40</f>
+        <f t="shared" si="5"/>
         <v>lcppt:ProductProcess</v>
       </c>
       <c r="F42" s="3"/>
@@ -1724,18 +1732,16 @@
     <row r="43">
       <c r="A43" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:ProjectManagementProcess</v>
+        <v>lcppt:WindPowerPlantProcess</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="15" t="s">
         <v>77</v>
       </c>
+      <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="E43" s="4" t="str">
-        <f>A39</f>
-        <v>lcppt:Process</v>
+        <f>A41</f>
+        <v>lcppt:ProductProcess</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -1750,7 +1756,7 @@
     <row r="44">
       <c r="A44" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:SupportingProcess</v>
+        <v>lcppt:ProjectManagementProcess</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>78</v>
@@ -1758,11 +1764,9 @@
       <c r="C44" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="D44" s="16"/>
       <c r="E44" s="4" t="str">
-        <f>A39</f>
+        <f>A40</f>
         <v>lcppt:Process</v>
       </c>
       <c r="F44" s="3"/>
@@ -1778,55 +1782,53 @@
     <row r="45">
       <c r="A45" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:ProcessGroup</v>
+        <v>lcppt:SupportingProcess</v>
       </c>
       <c r="B45" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="D45" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="4"/>
+      <c r="E45" s="4" t="str">
+        <f>A40</f>
+        <v>lcppt:Process</v>
+      </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="I45" s="17"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="18" t="s">
-        <v>52</v>
-      </c>
+      <c r="K45" s="18"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>lcppt:Initiation</v>
-      </c>
-      <c r="B46" s="4" t="s">
+      <c r="A46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:ProcessGroup</v>
+      </c>
+      <c r="B46" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="15" t="s">
         <v>84</v>
       </c>
       <c r="D46" s="16"/>
-      <c r="E46" s="4" t="str">
-        <f t="shared" ref="E46:E50" si="6">$A$45</f>
-        <v>lcppt:ProcessGroup</v>
-      </c>
+      <c r="E46" s="4"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -1835,7 +1837,7 @@
     <row r="47">
       <c r="A47" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Planning</v>
+        <v>lcppt:Initiation</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>85</v>
@@ -1845,18 +1847,18 @@
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E47:E51" si="6">$A$46</f>
         <v>lcppt:ProcessGroup</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -1865,17 +1867,15 @@
     <row r="48">
       <c r="A48" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Execution</v>
-      </c>
-      <c r="B48" s="21" t="s">
+        <v>lcppt:Planning</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="D48" s="16"/>
       <c r="E48" s="4" t="str">
         <f t="shared" si="6"/>
         <v>lcppt:ProcessGroup</v>
@@ -1884,11 +1884,11 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -1897,15 +1897,17 @@
     <row r="49">
       <c r="A49" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Performance-Control</v>
-      </c>
-      <c r="B49" s="4" t="s">
+        <v>lcppt:Execution</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="D49" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="16"/>
       <c r="E49" s="4" t="str">
         <f t="shared" si="6"/>
         <v>lcppt:ProcessGroup</v>
@@ -1914,11 +1916,11 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -1927,9 +1929,9 @@
     <row r="50">
       <c r="A50" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Closure</v>
-      </c>
-      <c r="B50" s="21" t="s">
+        <v>lcppt:Performance-Control</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -1944,56 +1946,72 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
     </row>
     <row r="51">
-      <c r="A51" s="3"/>
-      <c r="B51" s="21"/>
+      <c r="A51" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lcppt:Closure</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="16"/>
+      <c r="E51" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>lcppt:ProcessGroup</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
     </row>
     <row r="52">
       <c r="A52" s="3"/>
+      <c r="B52" s="21"/>
     </row>
     <row r="53">
       <c r="A53" s="3"/>
     </row>
     <row r="54">
       <c r="A54" s="3"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
     </row>
     <row r="55">
       <c r="A55" s="3"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
     </row>
     <row r="56">
       <c r="A56" s="3"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
     </row>
     <row r="57">
       <c r="A57" s="3"/>
@@ -2067,23 +2085,23 @@
     </row>
     <row r="62">
       <c r="A62" s="3"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
     </row>
     <row r="63">
       <c r="A63" s="3"/>
     </row>
     <row r="64">
       <c r="A64" s="3"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
     </row>
     <row r="65">
       <c r="A65" s="3"/>
@@ -2101,20 +2119,20 @@
     </row>
     <row r="66">
       <c r="A66" s="3"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
     </row>
     <row r="67">
       <c r="A67" s="3"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="3"/>
@@ -2188,21 +2206,20 @@
     </row>
     <row r="73">
       <c r="A73" s="3"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
     </row>
     <row r="74">
-      <c r="A74" s="1"/>
-      <c r="B74" s="24"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
+      <c r="A74" s="3"/>
     </row>
     <row r="75">
       <c r="A75" s="1"/>
@@ -2220,21 +2237,22 @@
       <c r="N75" s="3"/>
     </row>
     <row r="76">
-      <c r="A76" s="3"/>
+      <c r="A76" s="1"/>
+      <c r="B76" s="24"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
     </row>
     <row r="77">
       <c r="A77" s="3"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
     </row>
     <row r="78">
       <c r="A78" s="3"/>
@@ -2252,30 +2270,30 @@
     </row>
     <row r="79">
       <c r="A79" s="3"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="4"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
+      <c r="I79" s="22"/>
       <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
+      <c r="K79" s="23"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
     </row>
     <row r="80">
       <c r="A80" s="3"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
-      <c r="I80" s="22"/>
+      <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="23"/>
+      <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
@@ -2296,7 +2314,17 @@
     </row>
     <row r="82">
       <c r="A82" s="3"/>
-      <c r="B82" s="19"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
     </row>
     <row r="83">
       <c r="A83" s="3"/>
@@ -2304,18 +2332,7 @@
     </row>
     <row r="84">
       <c r="A84" s="3"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-      <c r="N84" s="3"/>
+      <c r="B84" s="19"/>
     </row>
     <row r="85">
       <c r="A85" s="3"/>
@@ -2364,19 +2381,29 @@
     </row>
     <row r="88">
       <c r="A88" s="3"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
     </row>
     <row r="89">
       <c r="A89" s="3"/>
-      <c r="B89" s="4"/>
-      <c r="E89" s="4"/>
     </row>
     <row r="90">
       <c r="A90" s="3"/>
+      <c r="B90" s="4"/>
+      <c r="E90" s="4"/>
     </row>
     <row r="91">
       <c r="A91" s="3"/>
-      <c r="B91" s="4"/>
-      <c r="E91" s="4"/>
     </row>
     <row r="92">
       <c r="A92" s="3"/>
@@ -2389,8 +2416,8 @@
       <c r="E93" s="4"/>
     </row>
     <row r="94">
-      <c r="A94" s="1"/>
-      <c r="B94" s="12"/>
+      <c r="A94" s="3"/>
+      <c r="B94" s="4"/>
       <c r="E94" s="4"/>
     </row>
     <row r="95">
@@ -2404,37 +2431,37 @@
       <c r="E96" s="4"/>
     </row>
     <row r="97">
-      <c r="A97" s="3"/>
+      <c r="A97" s="1"/>
+      <c r="B97" s="12"/>
       <c r="E97" s="4"/>
     </row>
     <row r="98">
       <c r="A98" s="3"/>
-      <c r="D98" s="16"/>
       <c r="E98" s="4"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="22"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
     </row>
     <row r="99">
       <c r="A99" s="3"/>
+      <c r="D99" s="16"/>
       <c r="E99" s="4"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="23"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
     </row>
     <row r="100">
       <c r="A100" s="3"/>
+      <c r="E100" s="4"/>
     </row>
     <row r="101">
       <c r="A101" s="3"/>
-      <c r="E101" s="4"/>
     </row>
     <row r="102">
       <c r="A102" s="3"/>
-      <c r="B102" s="4"/>
       <c r="E102" s="4"/>
     </row>
     <row r="103">
@@ -2454,6 +2481,8 @@
     </row>
     <row r="106">
       <c r="A106" s="3"/>
+      <c r="B106" s="4"/>
+      <c r="E106" s="4"/>
     </row>
     <row r="107">
       <c r="A107" s="3"/>
@@ -2463,10 +2492,10 @@
     </row>
     <row r="109">
       <c r="A109" s="3"/>
-      <c r="E109" s="4"/>
     </row>
     <row r="110">
       <c r="A110" s="3"/>
+      <c r="E110" s="4"/>
     </row>
     <row r="111">
       <c r="A111" s="3"/>
@@ -2479,23 +2508,10 @@
     </row>
     <row r="114">
       <c r="A114" s="3"/>
-      <c r="E114" s="4"/>
     </row>
     <row r="115">
-      <c r="A115" s="1"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="16"/>
+      <c r="A115" s="3"/>
       <c r="E115" s="4"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="22"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="23"/>
-      <c r="L115" s="3"/>
-      <c r="M115" s="3"/>
-      <c r="N115" s="3"/>
     </row>
     <row r="116">
       <c r="A116" s="1"/>
@@ -2530,8 +2546,20 @@
       <c r="N117" s="3"/>
     </row>
     <row r="118">
-      <c r="A118" s="3"/>
+      <c r="A118" s="1"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="16"/>
       <c r="E118" s="4"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="22"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="23"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
     </row>
     <row r="119">
       <c r="A119" s="3"/>
@@ -2543,6 +2571,7 @@
     </row>
     <row r="121">
       <c r="A121" s="3"/>
+      <c r="E121" s="4"/>
     </row>
     <row r="122">
       <c r="A122" s="3"/>
@@ -2552,22 +2581,22 @@
     </row>
     <row r="124">
       <c r="A124" s="3"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
-      <c r="K124" s="3"/>
-      <c r="L124" s="3"/>
-      <c r="M124" s="3"/>
-      <c r="N124" s="3"/>
     </row>
     <row r="125">
       <c r="A125" s="3"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
     </row>
     <row r="126">
       <c r="A126" s="3"/>
@@ -2586,17 +2615,17 @@
     </row>
     <row r="131">
       <c r="A131" s="3"/>
-      <c r="E131" s="4"/>
     </row>
     <row r="132">
       <c r="A132" s="3"/>
+      <c r="E132" s="4"/>
     </row>
     <row r="133">
       <c r="A133" s="3"/>
-      <c r="E133" s="4"/>
     </row>
     <row r="134">
       <c r="A134" s="3"/>
+      <c r="E134" s="4"/>
     </row>
     <row r="135">
       <c r="A135" s="3"/>
@@ -2630,12 +2659,15 @@
     </row>
     <row r="145">
       <c r="A145" s="3"/>
+      <c r="B145" s="21"/>
     </row>
     <row r="146">
       <c r="A146" s="3"/>
+      <c r="B146" s="21"/>
     </row>
     <row r="147">
       <c r="A147" s="3"/>
+      <c r="B147" s="21"/>
     </row>
     <row r="148">
       <c r="A148" s="3"/>
@@ -2653,10 +2685,20 @@
       <c r="A152" s="3"/>
     </row>
     <row r="153">
-      <c r="A153" s="3"/>
+      <c r="A153" s="3" t="str">
+        <f t="shared" ref="A153:A154" si="7">IF(ISBLANK($B153),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B153," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
+        <v/>
+      </c>
+      <c r="B153" s="21"/>
     </row>
     <row r="154">
-      <c r="A154" s="3"/>
+      <c r="A154" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2665,19 +2707,19 @@
     <hyperlink r:id="rId3" ref="C4"/>
     <hyperlink r:id="rId4" ref="C5"/>
     <hyperlink r:id="rId5" ref="B11"/>
-    <hyperlink r:id="rId6" ref="I25"/>
-    <hyperlink r:id="rId7" ref="I26"/>
-    <hyperlink r:id="rId8" ref="I27"/>
-    <hyperlink r:id="rId9" ref="I28"/>
-    <hyperlink r:id="rId10" ref="I29"/>
-    <hyperlink r:id="rId11" ref="I30"/>
-    <hyperlink r:id="rId12" ref="I31"/>
-    <hyperlink r:id="rId13" ref="I45"/>
-    <hyperlink r:id="rId14" ref="I46"/>
-    <hyperlink r:id="rId15" ref="I47"/>
-    <hyperlink r:id="rId16" ref="I48"/>
-    <hyperlink r:id="rId17" ref="I49"/>
-    <hyperlink r:id="rId18" ref="I50"/>
+    <hyperlink r:id="rId6" ref="I26"/>
+    <hyperlink r:id="rId7" ref="I27"/>
+    <hyperlink r:id="rId8" ref="I28"/>
+    <hyperlink r:id="rId9" ref="I29"/>
+    <hyperlink r:id="rId10" ref="I30"/>
+    <hyperlink r:id="rId11" ref="I31"/>
+    <hyperlink r:id="rId12" ref="I32"/>
+    <hyperlink r:id="rId13" ref="I46"/>
+    <hyperlink r:id="rId14" ref="I47"/>
+    <hyperlink r:id="rId15" ref="I48"/>
+    <hyperlink r:id="rId16" ref="I49"/>
+    <hyperlink r:id="rId17" ref="I50"/>
+    <hyperlink r:id="rId18" ref="I51"/>
   </hyperlinks>
   <drawing r:id="rId19"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -22,7 +22,7 @@
     <t>PREFIX</t>
   </si>
   <si>
-    <t>lcppt</t>
+    <t>wpl</t>
   </si>
   <si>
     <t>dct</t>
@@ -46,7 +46,7 @@
     <t>skos:prefLabel</t>
   </si>
   <si>
-    <t>LCPPT</t>
+    <t>WINDPROFILE</t>
   </si>
   <si>
     <t>dct:title</t>
@@ -1034,7 +1034,7 @@
     <row r="16">
       <c r="A16" s="1" t="str">
         <f t="shared" ref="A16:A51" si="1">IF(ISBLANK($B16),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B16," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
-        <v>lcppt:LifeCyclePhase</v>
+        <v>wpl:LifeCyclePhase</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>36</v>
@@ -1055,7 +1055,7 @@
     <row r="17">
       <c r="A17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:WindEnergyProjectLife-cycleStages</v>
+        <v>wpl:WindEnergyProjectLife-cycleStages</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>37</v>
@@ -1064,7 +1064,7 @@
       <c r="D17" s="16"/>
       <c r="E17" s="4" t="str">
         <f>A16</f>
-        <v>lcppt:LifeCyclePhase</v>
+        <v>wpl:LifeCyclePhase</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1079,7 +1079,7 @@
     <row r="18">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Identification</v>
+        <v>wpl:Identification</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>38</v>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" ref="E18:E25" si="2">$A$17</f>
-        <v>lcppt:WindEnergyProjectLife-cycleStages</v>
+        <v>wpl:WindEnergyProjectLife-cycleStages</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1105,7 +1105,7 @@
     <row r="19">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Feasibility</v>
+        <v>wpl:Feasibility</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>40</v>
@@ -1114,7 +1114,7 @@
       <c r="D19" s="16"/>
       <c r="E19" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>lcppt:WindEnergyProjectLife-cycleStages</v>
+        <v>wpl:WindEnergyProjectLife-cycleStages</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1129,7 +1129,7 @@
     <row r="20">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Development</v>
+        <v>wpl:Development</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>41</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>lcppt:WindEnergyProjectLife-cycleStages</v>
+        <v>wpl:WindEnergyProjectLife-cycleStages</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1155,7 +1155,7 @@
     <row r="21">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Pre-Construction</v>
+        <v>wpl:Pre-Construction</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>43</v>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>lcppt:WindEnergyProjectLife-cycleStages</v>
+        <v>wpl:WindEnergyProjectLife-cycleStages</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1181,7 +1181,7 @@
     <row r="22">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Construction</v>
+        <v>wpl:Construction</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>45</v>
@@ -1190,7 +1190,7 @@
       <c r="D22" s="20"/>
       <c r="E22" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>lcppt:WindEnergyProjectLife-cycleStages</v>
+        <v>wpl:WindEnergyProjectLife-cycleStages</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1205,7 +1205,7 @@
     <row r="23">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Commissioning</v>
+        <v>wpl:Commissioning</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>46</v>
@@ -1214,7 +1214,7 @@
       <c r="D23" s="20"/>
       <c r="E23" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>lcppt:WindEnergyProjectLife-cycleStages</v>
+        <v>wpl:WindEnergyProjectLife-cycleStages</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1229,7 +1229,7 @@
     <row r="24">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Operation-Maintenance</v>
+        <v>wpl:Operation-Maintenance</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>47</v>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>lcppt:WindEnergyProjectLife-cycleStages</v>
+        <v>wpl:WindEnergyProjectLife-cycleStages</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1255,7 +1255,7 @@
     <row r="25">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Decommissioning</v>
+        <v>wpl:Decommissioning</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>49</v>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>lcppt:WindEnergyProjectLife-cycleStages</v>
+        <v>wpl:WindEnergyProjectLife-cycleStages</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1281,7 +1281,7 @@
     <row r="26">
       <c r="A26" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:ReferenceProjectLifeCyclePhase</v>
+        <v>wpl:ReferenceProjectLifeCyclePhase</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>51</v>
@@ -1292,7 +1292,7 @@
       <c r="D26" s="16"/>
       <c r="E26" s="4" t="str">
         <f>A16</f>
-        <v>lcppt:LifeCyclePhase</v>
+        <v>wpl:LifeCyclePhase</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1311,7 +1311,7 @@
     <row r="27">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Feasibility</v>
+        <v>wpl:Feasibility</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>40</v>
@@ -1322,7 +1322,7 @@
       <c r="D27" s="16"/>
       <c r="E27" s="4" t="str">
         <f t="shared" ref="E27:E33" si="3">$A$26</f>
-        <v>lcppt:ReferenceProjectLifeCyclePhase</v>
+        <v>wpl:ReferenceProjectLifeCyclePhase</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1341,7 +1341,7 @@
     <row r="28">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Design</v>
+        <v>wpl:Design</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>56</v>
@@ -1352,7 +1352,7 @@
       <c r="D28" s="16"/>
       <c r="E28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>lcppt:ReferenceProjectLifeCyclePhase</v>
+        <v>wpl:ReferenceProjectLifeCyclePhase</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1371,7 +1371,7 @@
     <row r="29">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Build</v>
+        <v>wpl:Build</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>58</v>
@@ -1382,7 +1382,7 @@
       <c r="D29" s="16"/>
       <c r="E29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>lcppt:ReferenceProjectLifeCyclePhase</v>
+        <v>wpl:ReferenceProjectLifeCyclePhase</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1401,7 +1401,7 @@
     <row r="30">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Test</v>
+        <v>wpl:Test</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>60</v>
@@ -1412,7 +1412,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>lcppt:ReferenceProjectLifeCyclePhase</v>
+        <v>wpl:ReferenceProjectLifeCyclePhase</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1431,7 +1431,7 @@
     <row r="31">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Deploy</v>
+        <v>wpl:Deploy</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>62</v>
@@ -1442,7 +1442,7 @@
       <c r="D31" s="16"/>
       <c r="E31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>lcppt:ReferenceProjectLifeCyclePhase</v>
+        <v>wpl:ReferenceProjectLifeCyclePhase</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1461,7 +1461,7 @@
     <row r="32">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Close</v>
+        <v>wpl:Close</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>64</v>
@@ -1472,7 +1472,7 @@
       <c r="D32" s="16"/>
       <c r="E32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>lcppt:ReferenceProjectLifeCyclePhase</v>
+        <v>wpl:ReferenceProjectLifeCyclePhase</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1491,7 +1491,7 @@
     <row r="33">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:AllProjectPhases</v>
+        <v>wpl:AllProjectPhases</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>66</v>
@@ -1500,7 +1500,7 @@
       <c r="D33" s="16"/>
       <c r="E33" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>lcppt:ReferenceProjectLifeCyclePhase</v>
+        <v>wpl:ReferenceProjectLifeCyclePhase</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1515,7 +1515,7 @@
     <row r="34">
       <c r="A34" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:ProductLifeCyclePhase</v>
+        <v>wpl:ProductLifeCyclePhase</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>67</v>
@@ -1524,7 +1524,7 @@
       <c r="D34" s="16"/>
       <c r="E34" s="4" t="str">
         <f>A16</f>
-        <v>lcppt:LifeCyclePhase</v>
+        <v>wpl:LifeCyclePhase</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1539,7 +1539,7 @@
     <row r="35">
       <c r="A35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Conception</v>
+        <v>wpl:Conception</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>68</v>
@@ -1548,7 +1548,7 @@
       <c r="D35" s="16"/>
       <c r="E35" s="4" t="str">
         <f t="shared" ref="E35:E39" si="4">$A$34</f>
-        <v>lcppt:ProductLifeCyclePhase</v>
+        <v>wpl:ProductLifeCyclePhase</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1563,7 +1563,7 @@
     <row r="36">
       <c r="A36" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Design</v>
+        <v>wpl:Design</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>56</v>
@@ -1572,7 +1572,7 @@
       <c r="D36" s="16"/>
       <c r="E36" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>lcppt:ProductLifeCyclePhase</v>
+        <v>wpl:ProductLifeCyclePhase</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -1587,7 +1587,7 @@
     <row r="37">
       <c r="A37" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Realisation</v>
+        <v>wpl:Realisation</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>69</v>
@@ -1596,7 +1596,7 @@
       <c r="D37" s="16"/>
       <c r="E37" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>lcppt:ProductLifeCyclePhase</v>
+        <v>wpl:ProductLifeCyclePhase</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -1611,7 +1611,7 @@
     <row r="38">
       <c r="A38" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Service</v>
+        <v>wpl:Service</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>70</v>
@@ -1620,7 +1620,7 @@
       <c r="D38" s="16"/>
       <c r="E38" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>lcppt:ProductLifeCyclePhase</v>
+        <v>wpl:ProductLifeCyclePhase</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -1635,7 +1635,7 @@
     <row r="39">
       <c r="A39" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:AllProductPhases</v>
+        <v>wpl:AllProductPhases</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>71</v>
@@ -1644,7 +1644,7 @@
       <c r="D39" s="16"/>
       <c r="E39" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>lcppt:ProductLifeCyclePhase</v>
+        <v>wpl:ProductLifeCyclePhase</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -1659,7 +1659,7 @@
     <row r="40">
       <c r="A40" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Process</v>
+        <v>wpl:Process</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>72</v>
@@ -1680,7 +1680,7 @@
     <row r="41">
       <c r="A41" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:ProductProcess</v>
+        <v>wpl:ProductProcess</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>73</v>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="E41" s="4" t="str">
         <f t="shared" ref="E41:E42" si="5">A40</f>
-        <v>lcppt:Process</v>
+        <v>wpl:Process</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -1708,7 +1708,7 @@
     <row r="42">
       <c r="A42" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:WindTurbineProductProcess</v>
+        <v>wpl:WindTurbineProductProcess</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>76</v>
@@ -1717,7 +1717,7 @@
       <c r="D42" s="16"/>
       <c r="E42" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>lcppt:ProductProcess</v>
+        <v>wpl:ProductProcess</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -1732,7 +1732,7 @@
     <row r="43">
       <c r="A43" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:WindPowerPlantProcess</v>
+        <v>wpl:WindPowerPlantProcess</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>77</v>
@@ -1741,7 +1741,7 @@
       <c r="D43" s="16"/>
       <c r="E43" s="4" t="str">
         <f>A41</f>
-        <v>lcppt:ProductProcess</v>
+        <v>wpl:ProductProcess</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -1756,7 +1756,7 @@
     <row r="44">
       <c r="A44" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:ProjectManagementProcess</v>
+        <v>wpl:ProjectManagementProcess</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>78</v>
@@ -1767,7 +1767,7 @@
       <c r="D44" s="16"/>
       <c r="E44" s="4" t="str">
         <f>A40</f>
-        <v>lcppt:Process</v>
+        <v>wpl:Process</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1782,7 +1782,7 @@
     <row r="45">
       <c r="A45" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:SupportingProcess</v>
+        <v>wpl:SupportingProcess</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>80</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="E45" s="4" t="str">
         <f>A40</f>
-        <v>lcppt:Process</v>
+        <v>wpl:Process</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -1810,7 +1810,7 @@
     <row r="46">
       <c r="A46" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:ProcessGroup</v>
+        <v>wpl:ProcessGroup</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>83</v>
@@ -1837,7 +1837,7 @@
     <row r="47">
       <c r="A47" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Initiation</v>
+        <v>wpl:Initiation</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>85</v>
@@ -1848,7 +1848,7 @@
       <c r="D47" s="16"/>
       <c r="E47" s="4" t="str">
         <f t="shared" ref="E47:E51" si="6">$A$46</f>
-        <v>lcppt:ProcessGroup</v>
+        <v>wpl:ProcessGroup</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -1867,7 +1867,7 @@
     <row r="48">
       <c r="A48" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Planning</v>
+        <v>wpl:Planning</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>87</v>
@@ -1878,7 +1878,7 @@
       <c r="D48" s="16"/>
       <c r="E48" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>lcppt:ProcessGroup</v>
+        <v>wpl:ProcessGroup</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -1897,7 +1897,7 @@
     <row r="49">
       <c r="A49" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Execution</v>
+        <v>wpl:Execution</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>89</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="E49" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>lcppt:ProcessGroup</v>
+        <v>wpl:ProcessGroup</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -1929,7 +1929,7 @@
     <row r="50">
       <c r="A50" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Performance-Control</v>
+        <v>wpl:Performance-Control</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>92</v>
@@ -1940,7 +1940,7 @@
       <c r="D50" s="16"/>
       <c r="E50" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>lcppt:ProcessGroup</v>
+        <v>wpl:ProcessGroup</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -1959,7 +1959,7 @@
     <row r="51">
       <c r="A51" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lcppt:Closure</v>
+        <v>wpl:Closure</v>
       </c>
       <c r="B51" s="21" t="s">
         <v>94</v>
@@ -1970,7 +1970,7 @@
       <c r="D51" s="16"/>
       <c r="E51" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>lcppt:ProcessGroup</v>
+        <v>wpl:ProcessGroup</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -127,55 +127,82 @@
     <t>Wind Energy Project Life-cycle Stages</t>
   </si>
   <si>
-    <t>Identification</t>
+    <t>0. Identification</t>
+  </si>
+  <si>
+    <t>Initial stage where potential wind energy sites are identified based on criteria like wind resource, land availability, and environmental factors.</t>
   </si>
   <si>
     <t>Screening, Site Selection, Pilot Study</t>
   </si>
   <si>
+    <t>1. Feasibility</t>
+  </si>
+  <si>
+    <t>Detailed analysis of the identified site, including technical, environmental, and financial assessments to determine project viability.</t>
+  </si>
+  <si>
+    <t>2. Development</t>
+  </si>
+  <si>
+    <t>Preparation of detailed plans and engineering designs, wind turbine technology and vendor selection, securing permits, land leases, financing, and stakeholder agreements required to move forward with the project.</t>
+  </si>
+  <si>
+    <t>Design, Planning &amp; Permitting</t>
+  </si>
+  <si>
+    <t>3. Pre-Construction</t>
+  </si>
+  <si>
+    <t>Finalizing detailed engineering designs, procurement of materials, and preparation of the site for construction, including contractor selection.</t>
+  </si>
+  <si>
+    <t>Purchase, Procurement</t>
+  </si>
+  <si>
+    <t>4. Construction</t>
+  </si>
+  <si>
+    <t>Physical construction of the wind farm, including infrastructure setup (turbines, roads, electrical connections) and project management oversight.</t>
+  </si>
+  <si>
+    <t>5. Commissioning</t>
+  </si>
+  <si>
+    <t>Testing and certifying that the wind farm operates according to design specifications before becoming fully operational.</t>
+  </si>
+  <si>
+    <t>6. Operation &amp; Maintenance</t>
+  </si>
+  <si>
+    <t>Ongoing operation of the wind farm, including regular monitoring, maintenance, and optimization to ensure maximum energy production and efficiency.</t>
+  </si>
+  <si>
+    <t>Middle of life</t>
+  </si>
+  <si>
+    <t>7. Decommissioning</t>
+  </si>
+  <si>
+    <t>End-of-life activities for the wind farm, involving dismantling turbines and infrastructure, restoring the site, and recycling or disposing of materials.</t>
+  </si>
+  <si>
+    <t>End of life</t>
+  </si>
+  <si>
+    <t>Reference Project Life Cycle Phase</t>
+  </si>
+  <si>
+    <t>Project phase is a collection of logically related project activities (processes) that culminates in the completion of one or more deliverables. Project Life Cycle is the series of phases that a project passes through from its start to its completion.</t>
+  </si>
+  <si>
+    <t>https://www.pmi.org/</t>
+  </si>
+  <si>
+    <t>urn:ISBN:9781628256659</t>
+  </si>
+  <si>
     <t>Feasibility</t>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
-    <t>Design, Planning &amp; Permitting</t>
-  </si>
-  <si>
-    <t>Pre-Construction</t>
-  </si>
-  <si>
-    <t>Purchase, Procurement</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Commissioning</t>
-  </si>
-  <si>
-    <t>Operation &amp; Maintenance</t>
-  </si>
-  <si>
-    <t>Middle of life</t>
-  </si>
-  <si>
-    <t>Decommissioning</t>
-  </si>
-  <si>
-    <t>End of life</t>
-  </si>
-  <si>
-    <t>Reference Project Life Cycle Phase</t>
-  </si>
-  <si>
-    <t>Project phase is a collection of logically related project activities (processes) that culminates in the completion of one or more deliverables. Project Life Cycle is the series of phases that a project passes through from its start to its completion.</t>
-  </si>
-  <si>
-    <t>https://www.pmi.org/</t>
-  </si>
-  <si>
-    <t>urn:ISBN:9781628256659</t>
   </si>
   <si>
     <t>This phase determines if the business case is valid and if the organization has the capability to deliver the intended outcome.</t>
@@ -1079,14 +1106,16 @@
     <row r="18">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>wpl:Identification</v>
+        <v>wpl:0.Identification</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="D18" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" ref="E18:E25" si="2">$A$17</f>
@@ -1105,12 +1134,14 @@
     <row r="19">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>wpl:Feasibility</v>
+        <v>wpl:1.Feasibility</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="15"/>
+        <v>41</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="D19" s="16"/>
       <c r="E19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1129,14 +1160,16 @@
     <row r="20">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>wpl:Development</v>
+        <v>wpl:2.Development</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="15"/>
+        <v>43</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="D20" s="20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1155,14 +1188,16 @@
     <row r="21">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>wpl:Pre-Construction</v>
+        <v>wpl:3.Pre-Construction</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="15"/>
+        <v>46</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="D21" s="20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1181,12 +1216,14 @@
     <row r="22">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>wpl:Construction</v>
+        <v>wpl:4.Construction</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="D22" s="20"/>
       <c r="E22" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1205,12 +1242,14 @@
     <row r="23">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>wpl:Commissioning</v>
+        <v>wpl:5.Commissioning</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="D23" s="20"/>
       <c r="E23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1229,14 +1268,16 @@
     <row r="24">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>wpl:Operation-Maintenance</v>
+        <v>wpl:6.Operation-Maintenance</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="15"/>
+        <v>53</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="D24" s="20" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1255,14 +1296,16 @@
     <row r="25">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>wpl:Decommissioning</v>
+        <v>wpl:7.Decommissioning</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="15"/>
+        <v>56</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="D25" s="20" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1284,10 +1327,10 @@
         <v>wpl:ReferenceProjectLifeCyclePhase</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="4" t="str">
@@ -1298,11 +1341,11 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="18" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -1314,10 +1357,10 @@
         <v>wpl:Feasibility</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="4" t="str">
@@ -1328,11 +1371,11 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="18" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -1344,10 +1387,10 @@
         <v>wpl:Design</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="4" t="str">
@@ -1358,11 +1401,11 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="18" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -1374,10 +1417,10 @@
         <v>wpl:Build</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="4" t="str">
@@ -1388,11 +1431,11 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="18" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -1404,10 +1447,10 @@
         <v>wpl:Test</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="4" t="str">
@@ -1418,11 +1461,11 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="18" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -1434,10 +1477,10 @@
         <v>wpl:Deploy</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="4" t="str">
@@ -1448,11 +1491,11 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="18" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -1464,10 +1507,10 @@
         <v>wpl:Close</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="4" t="str">
@@ -1478,11 +1521,11 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="18" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -1494,7 +1537,7 @@
         <v>wpl:AllProjectPhases</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="16"/>
@@ -1518,7 +1561,7 @@
         <v>wpl:ProductLifeCyclePhase</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="16"/>
@@ -1542,7 +1585,7 @@
         <v>wpl:Conception</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="16"/>
@@ -1566,7 +1609,7 @@
         <v>wpl:Design</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="16"/>
@@ -1590,7 +1633,7 @@
         <v>wpl:Realisation</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="16"/>
@@ -1614,7 +1657,7 @@
         <v>wpl:Service</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="16"/>
@@ -1638,7 +1681,7 @@
         <v>wpl:AllProductPhases</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="16"/>
@@ -1662,7 +1705,7 @@
         <v>wpl:Process</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
@@ -1683,13 +1726,13 @@
         <v>wpl:ProductProcess</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E41" s="4" t="str">
         <f t="shared" ref="E41:E42" si="5">A40</f>
@@ -1711,7 +1754,7 @@
         <v>wpl:WindTurbineProductProcess</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="16"/>
@@ -1735,7 +1778,7 @@
         <v>wpl:WindPowerPlantProcess</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
@@ -1759,10 +1802,10 @@
         <v>wpl:ProjectManagementProcess</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="4" t="str">
@@ -1785,13 +1828,13 @@
         <v>wpl:SupportingProcess</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E45" s="4" t="str">
         <f>A40</f>
@@ -1813,10 +1856,10 @@
         <v>wpl:ProcessGroup</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="4"/>
@@ -1824,11 +1867,11 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="18" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -1840,10 +1883,10 @@
         <v>wpl:Initiation</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="4" t="str">
@@ -1854,11 +1897,11 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="18" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -1870,10 +1913,10 @@
         <v>wpl:Planning</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="4" t="str">
@@ -1884,11 +1927,11 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="18" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -1900,13 +1943,13 @@
         <v>wpl:Execution</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E49" s="4" t="str">
         <f t="shared" si="6"/>
@@ -1916,11 +1959,11 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="18" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -1932,10 +1975,10 @@
         <v>wpl:Performance-Control</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="4" t="str">
@@ -1946,11 +1989,11 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="18" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -1962,10 +2005,10 @@
         <v>wpl:Closure</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="4" t="str">
@@ -1976,11 +2019,11 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="18" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="197">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -79,7 +79,7 @@
     <t>owl:versionInfo</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Identifier</t>
@@ -124,10 +124,13 @@
     <t>Life Cycle Phase</t>
   </si>
   <si>
-    <t>Wind Energy Project Life-cycle Stages</t>
-  </si>
-  <si>
-    <t>0. Identification</t>
+    <t>Wind Energy Project Life-cycle Phase</t>
+  </si>
+  <si>
+    <t>wpl:0.Identification</t>
+  </si>
+  <si>
+    <t>Identification</t>
   </si>
   <si>
     <t>Initial stage where potential wind energy sites are identified based on criteria like wind resource, land availability, and environmental factors.</t>
@@ -136,13 +139,19 @@
     <t>Screening, Site Selection, Pilot Study</t>
   </si>
   <si>
-    <t>1. Feasibility</t>
+    <t>wpl:1.Feasibility</t>
+  </si>
+  <si>
+    <t>Feasibility</t>
   </si>
   <si>
     <t>Detailed analysis of the identified site, including technical, environmental, and financial assessments to determine project viability.</t>
   </si>
   <si>
-    <t>2. Development</t>
+    <t>wpl:2.Development</t>
+  </si>
+  <si>
+    <t>Development</t>
   </si>
   <si>
     <t>Preparation of detailed plans and engineering designs, wind turbine technology and vendor selection, securing permits, land leases, financing, and stakeholder agreements required to move forward with the project.</t>
@@ -151,7 +160,10 @@
     <t>Design, Planning &amp; Permitting</t>
   </si>
   <si>
-    <t>3. Pre-Construction</t>
+    <t>wpl:3.Pre-Construction</t>
+  </si>
+  <si>
+    <t>Pre-Construction</t>
   </si>
   <si>
     <t>Finalizing detailed engineering designs, procurement of materials, and preparation of the site for construction, including contractor selection.</t>
@@ -160,19 +172,28 @@
     <t>Purchase, Procurement</t>
   </si>
   <si>
-    <t>4. Construction</t>
+    <t>wpl:4.Construction</t>
+  </si>
+  <si>
+    <t>Construction</t>
   </si>
   <si>
     <t>Physical construction of the wind farm, including infrastructure setup (turbines, roads, electrical connections) and project management oversight.</t>
   </si>
   <si>
-    <t>5. Commissioning</t>
+    <t>wpl:5.Commissioning</t>
+  </si>
+  <si>
+    <t>Commissioning</t>
   </si>
   <si>
     <t>Testing and certifying that the wind farm operates according to design specifications before becoming fully operational.</t>
   </si>
   <si>
-    <t>6. Operation &amp; Maintenance</t>
+    <t>wpl:6.Operation-Maintenance</t>
+  </si>
+  <si>
+    <t>Operation &amp; Maintenance</t>
   </si>
   <si>
     <t>Ongoing operation of the wind farm, including regular monitoring, maintenance, and optimization to ensure maximum energy production and efficiency.</t>
@@ -181,7 +202,10 @@
     <t>Middle of life</t>
   </si>
   <si>
-    <t>7. Decommissioning</t>
+    <t>wpl:7.Decommissioning</t>
+  </si>
+  <si>
+    <t>Decommissioning</t>
   </si>
   <si>
     <t>End-of-life activities for the wind farm, involving dismantling turbines and infrastructure, restoring the site, and recycling or disposing of materials.</t>
@@ -190,7 +214,7 @@
     <t>End of life</t>
   </si>
   <si>
-    <t>Reference Project Life Cycle Phase</t>
+    <t>Reference Project Life-cycle Phase</t>
   </si>
   <si>
     <t>Project phase is a collection of logically related project activities (processes) that culminates in the completion of one or more deliverables. Project Life Cycle is the series of phases that a project passes through from its start to its completion.</t>
@@ -202,9 +226,6 @@
     <t>urn:ISBN:9781628256659</t>
   </si>
   <si>
-    <t>Feasibility</t>
-  </si>
-  <si>
     <t>This phase determines if the business case is valid and if the organization has the capability to deliver the intended outcome.</t>
   </si>
   <si>
@@ -241,7 +262,7 @@
     <t>All Project Phases</t>
   </si>
   <si>
-    <t>Product Life Cycle Phase</t>
+    <t>Product Life-cycle Phase</t>
   </si>
   <si>
     <t>Conception</t>
@@ -326,6 +347,261 @@
   </si>
   <si>
     <t>Those processes performed to formally complete or close a project, phase, or contract.</t>
+  </si>
+  <si>
+    <t>Research &amp; Develeopment</t>
+  </si>
+  <si>
+    <t>Analysis &amp; Modelling</t>
+  </si>
+  <si>
+    <t>Sensitivity Analysis</t>
+  </si>
+  <si>
+    <t>Uncertainty Quantification</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>SWOT analysis</t>
+  </si>
+  <si>
+    <t>What-if Scenario</t>
+  </si>
+  <si>
+    <t>Conceptual Modelling</t>
+  </si>
+  <si>
+    <t>Mathematical Modelling</t>
+  </si>
+  <si>
+    <t>Data Analysis</t>
+  </si>
+  <si>
+    <t>Stakeholder Communication</t>
+  </si>
+  <si>
+    <t>Information Security Management</t>
+  </si>
+  <si>
+    <t>Change Management</t>
+  </si>
+  <si>
+    <t>Financial Managemnt</t>
+  </si>
+  <si>
+    <t>Knowledge Management</t>
+  </si>
+  <si>
+    <t>Data Management</t>
+  </si>
+  <si>
+    <t>Documentation &amp; Reporting</t>
+  </si>
+  <si>
+    <t>Human Resource Management</t>
+  </si>
+  <si>
+    <t>Meeting &amp; Event</t>
+  </si>
+  <si>
+    <t>Legal &amp; Regulatory</t>
+  </si>
+  <si>
+    <t>Ethics &amp; Compliance</t>
+  </si>
+  <si>
+    <t>Health &amp; Safety</t>
+  </si>
+  <si>
+    <t>Market Analysis</t>
+  </si>
+  <si>
+    <t>Site Selection</t>
+  </si>
+  <si>
+    <t>Prospecting</t>
+  </si>
+  <si>
+    <t>Rough energy yield estimates and comparisons at different potential sites</t>
+  </si>
+  <si>
+    <t>Wind Resource Assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental Impact Assessment </t>
+  </si>
+  <si>
+    <t>Permitting</t>
+  </si>
+  <si>
+    <t>Environmental permits, land permits</t>
+  </si>
+  <si>
+    <t>Vendor Selection</t>
+  </si>
+  <si>
+    <t>Risk Assessment</t>
+  </si>
+  <si>
+    <t>Financial Planning</t>
+  </si>
+  <si>
+    <t>Procurement</t>
+  </si>
+  <si>
+    <t>Certification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Energy Production Assessment </t>
+  </si>
+  <si>
+    <t>Quality Assureance &amp; Control</t>
+  </si>
+  <si>
+    <t>Monitoring &amp; Reporting</t>
+  </si>
+  <si>
+    <t>Financial Control</t>
+  </si>
+  <si>
+    <t>Expansion</t>
+  </si>
+  <si>
+    <t>Phase Out</t>
+  </si>
+  <si>
+    <t>Wind Power Plant Specification</t>
+  </si>
+  <si>
+    <t>Technology Selection</t>
+  </si>
+  <si>
+    <t>Wind Power Plant Layout Definition</t>
+  </si>
+  <si>
+    <t>Wind Power Plant Site Preparation</t>
+  </si>
+  <si>
+    <t>Wind Power Plant Construction</t>
+  </si>
+  <si>
+    <t>Civil Works</t>
+  </si>
+  <si>
+    <t>Electrical Works</t>
+  </si>
+  <si>
+    <t>Wind Turbine Installation</t>
+  </si>
+  <si>
+    <t>Wind Power Plant Operation</t>
+  </si>
+  <si>
+    <t>Forecasting</t>
+  </si>
+  <si>
+    <t>Wind Power Plant  Supervision</t>
+  </si>
+  <si>
+    <t>Wind Power Plant Operational Analysis</t>
+  </si>
+  <si>
+    <t>Wid Power Plant Maintenence</t>
+  </si>
+  <si>
+    <t>Maintence Scheduling</t>
+  </si>
+  <si>
+    <t>Predictive Maintenance</t>
+  </si>
+  <si>
+    <t>Risk-based Maintenance</t>
+  </si>
+  <si>
+    <t>Equipment Servicing</t>
+  </si>
+  <si>
+    <t>Wind Power Plant Control</t>
+  </si>
+  <si>
+    <t>Wind Turbine Specification</t>
+  </si>
+  <si>
+    <t>Wind Turbine Concept Design</t>
+  </si>
+  <si>
+    <t>Wind Turbine Design</t>
+  </si>
+  <si>
+    <t>Wind Turbine Design Validation</t>
+  </si>
+  <si>
+    <t>Wind Turbine Manufacturing Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind Turbine Components Manufacturing </t>
+  </si>
+  <si>
+    <t>Wind Turbine Components Assembly</t>
+  </si>
+  <si>
+    <t>Wind Turbine Components Transportaion</t>
+  </si>
+  <si>
+    <t>Wind Turbine Assembly</t>
+  </si>
+  <si>
+    <t>Wind Turbine Certification</t>
+  </si>
+  <si>
+    <t>Wind Turbine Testing</t>
+  </si>
+  <si>
+    <t>Wind Turbine Vending</t>
+  </si>
+  <si>
+    <t>Wind Turbine Operation &amp; Monitoring</t>
+  </si>
+  <si>
+    <t>Wind Turbine Control</t>
+  </si>
+  <si>
+    <t>Inspeciton</t>
+  </si>
+  <si>
+    <t>Structural Health Monitoring</t>
+  </si>
+  <si>
+    <t>Real-Time Monitoring</t>
+  </si>
+  <si>
+    <t>Failure Detection</t>
+  </si>
+  <si>
+    <t>Fault Diagnosis</t>
+  </si>
+  <si>
+    <t>Wind Turbine Vendor Support &amp; Maintenence</t>
+  </si>
+  <si>
+    <t>Upgrade &amp; Retrofits</t>
+  </si>
+  <si>
+    <t>Wind Turbine Decomissioning</t>
+  </si>
+  <si>
+    <t>Remaining Useful Life Calculation</t>
+  </si>
+  <si>
+    <t>Wind Turbine Useful Life Extension</t>
+  </si>
+  <si>
+    <t>Wind Turbine Dissasembly</t>
+  </si>
+  <si>
+    <t>Wind Turbine Components Recycling</t>
   </si>
 </sst>
 </file>
@@ -434,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -510,6 +786,7 @@
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1060,7 +1337,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="str">
-        <f t="shared" ref="A16:A51" si="1">IF(ISBLANK($B16),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B16," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
+        <f t="shared" ref="A16:A17" si="1">IF(ISBLANK($B16),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B16," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
         <v>wpl:LifeCyclePhase</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -1082,7 +1359,7 @@
     <row r="17">
       <c r="A17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>wpl:WindEnergyProjectLife-cycleStages</v>
+        <v>wpl:WindEnergyProjectLife-cyclePhase</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>37</v>
@@ -1104,22 +1381,21 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wpl:0.Identification</v>
+      <c r="A18" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" ref="E18:E25" si="2">$A$17</f>
-        <v>wpl:WindEnergyProjectLife-cycleStages</v>
+        <v>wpl:WindEnergyProjectLife-cyclePhase</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1132,20 +1408,19 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wpl:1.Feasibility</v>
+      <c r="A19" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>wpl:WindEnergyProjectLife-cycleStages</v>
+        <v>wpl:WindEnergyProjectLife-cyclePhase</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1158,22 +1433,21 @@
       <c r="N19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wpl:2.Development</v>
+      <c r="A20" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>wpl:WindEnergyProjectLife-cycleStages</v>
+        <v>wpl:WindEnergyProjectLife-cyclePhase</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1186,22 +1460,21 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wpl:3.Pre-Construction</v>
+      <c r="A21" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>wpl:WindEnergyProjectLife-cycleStages</v>
+        <v>wpl:WindEnergyProjectLife-cyclePhase</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1214,20 +1487,19 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wpl:4.Construction</v>
+      <c r="A22" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>wpl:WindEnergyProjectLife-cycleStages</v>
+        <v>wpl:WindEnergyProjectLife-cyclePhase</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1240,20 +1512,19 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wpl:5.Commissioning</v>
+      <c r="A23" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>wpl:WindEnergyProjectLife-cycleStages</v>
+        <v>wpl:WindEnergyProjectLife-cyclePhase</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1266,22 +1537,21 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wpl:6.Operation-Maintenance</v>
+      <c r="A24" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>wpl:WindEnergyProjectLife-cycleStages</v>
+        <v>wpl:WindEnergyProjectLife-cyclePhase</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1294,22 +1564,21 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wpl:7.Decommissioning</v>
+      <c r="A25" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>wpl:WindEnergyProjectLife-cycleStages</v>
+        <v>wpl:WindEnergyProjectLife-cyclePhase</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1323,14 +1592,14 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>wpl:ReferenceProjectLifeCyclePhase</v>
+        <f t="shared" ref="A26:A51" si="3">IF(ISBLANK($B26),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B26," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
+        <v>wpl:ReferenceProjectLife-cyclePhase</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="4" t="str">
@@ -1341,11 +1610,11 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="18" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -1353,29 +1622,29 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>wpl:Feasibility</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="4" t="str">
-        <f t="shared" ref="E27:E33" si="3">$A$26</f>
-        <v>wpl:ReferenceProjectLifeCyclePhase</v>
+        <f t="shared" ref="E27:E33" si="4">$A$26</f>
+        <v>wpl:ReferenceProjectLife-cyclePhase</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="18" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -1383,29 +1652,29 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>wpl:Design</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>wpl:ReferenceProjectLifeCyclePhase</v>
+        <f t="shared" si="4"/>
+        <v>wpl:ReferenceProjectLife-cyclePhase</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="18" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -1413,29 +1682,29 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>wpl:Build</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>wpl:ReferenceProjectLifeCyclePhase</v>
+        <f t="shared" si="4"/>
+        <v>wpl:ReferenceProjectLife-cyclePhase</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="18" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -1443,29 +1712,29 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>wpl:Test</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>wpl:ReferenceProjectLifeCyclePhase</v>
+        <f t="shared" si="4"/>
+        <v>wpl:ReferenceProjectLife-cyclePhase</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="18" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -1473,29 +1742,29 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>wpl:Deploy</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>wpl:ReferenceProjectLifeCyclePhase</v>
+        <f t="shared" si="4"/>
+        <v>wpl:ReferenceProjectLife-cyclePhase</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="18" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -1503,29 +1772,29 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>wpl:Close</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>wpl:ReferenceProjectLifeCyclePhase</v>
+        <f t="shared" si="4"/>
+        <v>wpl:ReferenceProjectLife-cyclePhase</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="18" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -1533,17 +1802,17 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>wpl:AllProjectPhases</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="16"/>
       <c r="E33" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>wpl:ReferenceProjectLifeCyclePhase</v>
+        <f t="shared" si="4"/>
+        <v>wpl:ReferenceProjectLife-cyclePhase</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1557,11 +1826,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>wpl:ProductLifeCyclePhase</v>
+        <f t="shared" si="3"/>
+        <v>wpl:ProductLife-cyclePhase</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="16"/>
@@ -1581,17 +1850,17 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>wpl:Conception</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="16"/>
       <c r="E35" s="4" t="str">
-        <f t="shared" ref="E35:E39" si="4">$A$34</f>
-        <v>wpl:ProductLifeCyclePhase</v>
+        <f t="shared" ref="E35:E39" si="5">$A$34</f>
+        <v>wpl:ProductLife-cyclePhase</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1605,17 +1874,17 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>wpl:Design</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="16"/>
       <c r="E36" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>wpl:ProductLifeCyclePhase</v>
+        <f t="shared" si="5"/>
+        <v>wpl:ProductLife-cyclePhase</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -1629,17 +1898,17 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>wpl:Realisation</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="16"/>
       <c r="E37" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>wpl:ProductLifeCyclePhase</v>
+        <f t="shared" si="5"/>
+        <v>wpl:ProductLife-cyclePhase</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -1653,17 +1922,17 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>wpl:Service</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="16"/>
       <c r="E38" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>wpl:ProductLifeCyclePhase</v>
+        <f t="shared" si="5"/>
+        <v>wpl:ProductLife-cyclePhase</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -1677,17 +1946,17 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>wpl:AllProductPhases</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="16"/>
       <c r="E39" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>wpl:ProductLifeCyclePhase</v>
+        <f t="shared" si="5"/>
+        <v>wpl:ProductLife-cyclePhase</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -1701,11 +1970,11 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>wpl:Process</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
@@ -1722,20 +1991,20 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>wpl:ProductProcess</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E41" s="4" t="str">
-        <f t="shared" ref="E41:E42" si="5">A40</f>
+        <f t="shared" ref="E41:E42" si="6">A40</f>
         <v>wpl:Process</v>
       </c>
       <c r="F41" s="3"/>
@@ -1750,16 +2019,16 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>wpl:WindTurbineProductProcess</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="16"/>
       <c r="E42" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>wpl:ProductProcess</v>
       </c>
       <c r="F42" s="3"/>
@@ -1774,11 +2043,11 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>wpl:WindPowerPlantProcess</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
@@ -1798,14 +2067,14 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>wpl:ProjectManagementProcess</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="4" t="str">
@@ -1824,17 +2093,17 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>wpl:SupportingProcess</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E45" s="4" t="str">
         <f>A40</f>
@@ -1852,14 +2121,14 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>wpl:ProcessGroup</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="4"/>
@@ -1867,11 +2136,11 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="18" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -1879,29 +2148,29 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>wpl:Initiation</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="4" t="str">
-        <f t="shared" ref="E47:E51" si="6">$A$46</f>
+        <f t="shared" ref="E47:E51" si="7">$A$46</f>
         <v>wpl:ProcessGroup</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="18" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -1909,29 +2178,29 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>wpl:Planning</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>wpl:ProcessGroup</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="18" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -1939,31 +2208,31 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>wpl:Execution</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E49" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>wpl:ProcessGroup</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="18" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -1971,29 +2240,29 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>wpl:Performance-Control</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>wpl:ProcessGroup</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="18" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -2001,29 +2270,29 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>wpl:Closure</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>wpl:ProcessGroup</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="18" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -2034,13 +2303,31 @@
       <c r="B52" s="21"/>
     </row>
     <row r="53">
-      <c r="A53" s="3"/>
+      <c r="A53" s="3" t="str">
+        <f t="shared" ref="A53:A74" si="8">IF(ISBLANK($B53),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B53," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
+        <v>wpl:Research-Develeopment</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="3"/>
+      <c r="A54" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>wpl:Analysis-Modelling</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="3"/>
+      <c r="A55" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>wpl:SensitivityAnalysis</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="D55" s="16"/>
       <c r="E55" s="4"/>
       <c r="F55" s="3"/>
@@ -2054,10 +2341,22 @@
       <c r="N55" s="3"/>
     </row>
     <row r="56">
-      <c r="A56" s="3"/>
+      <c r="A56" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>wpl:UncertaintyQuantification</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="3"/>
+      <c r="A57" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>wpl:Simulation</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>116</v>
+      </c>
       <c r="D57" s="16"/>
       <c r="E57" s="4"/>
       <c r="F57" s="3"/>
@@ -2071,7 +2370,13 @@
       <c r="N57" s="3"/>
     </row>
     <row r="58">
-      <c r="A58" s="3"/>
+      <c r="A58" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>wpl:SWOTanalysis</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>117</v>
+      </c>
       <c r="D58" s="16"/>
       <c r="E58" s="4"/>
       <c r="F58" s="3"/>
@@ -2085,7 +2390,13 @@
       <c r="N58" s="3"/>
     </row>
     <row r="59">
-      <c r="A59" s="3"/>
+      <c r="A59" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>wpl:What-ifScenario</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>118</v>
+      </c>
       <c r="D59" s="16"/>
       <c r="E59" s="4"/>
       <c r="F59" s="3"/>
@@ -2099,7 +2410,13 @@
       <c r="N59" s="3"/>
     </row>
     <row r="60">
-      <c r="A60" s="3"/>
+      <c r="A60" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>wpl:ConceptualModelling</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>119</v>
+      </c>
       <c r="D60" s="16"/>
       <c r="E60" s="4"/>
       <c r="F60" s="3"/>
@@ -2113,7 +2430,13 @@
       <c r="N60" s="3"/>
     </row>
     <row r="61">
-      <c r="A61" s="3"/>
+      <c r="A61" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>wpl:MathematicalModelling</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="D61" s="16"/>
       <c r="E61" s="4"/>
       <c r="F61" s="3"/>
@@ -2127,7 +2450,13 @@
       <c r="N61" s="3"/>
     </row>
     <row r="62">
-      <c r="A62" s="3"/>
+      <c r="A62" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>wpl:DataAnalysis</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>121</v>
+      </c>
       <c r="D62" s="16"/>
       <c r="E62" s="4"/>
       <c r="F62" s="3"/>
@@ -2141,13 +2470,31 @@
       <c r="N62" s="3"/>
     </row>
     <row r="63">
-      <c r="A63" s="3"/>
+      <c r="A63" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>wpl:StakeholderCommunication</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="3"/>
+      <c r="A64" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>wpl:InformationSecurityManagement</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="3"/>
+      <c r="A65" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>wpl:ChangeManagement</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>124</v>
+      </c>
       <c r="D65" s="16"/>
       <c r="E65" s="4"/>
       <c r="F65" s="3"/>
@@ -2161,7 +2508,13 @@
       <c r="N65" s="3"/>
     </row>
     <row r="66">
-      <c r="A66" s="3"/>
+      <c r="A66" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>wpl:FinancialManagemnt</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>125</v>
+      </c>
       <c r="D66" s="16"/>
       <c r="E66" s="4"/>
       <c r="F66" s="3"/>
@@ -2175,10 +2528,22 @@
       <c r="N66" s="3"/>
     </row>
     <row r="67">
-      <c r="A67" s="3"/>
+      <c r="A67" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>wpl:KnowledgeManagement</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="3"/>
+      <c r="A68" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>wpl:DataManagement</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="D68" s="16"/>
       <c r="E68" s="4"/>
       <c r="F68" s="3"/>
@@ -2192,7 +2557,13 @@
       <c r="N68" s="3"/>
     </row>
     <row r="69">
-      <c r="A69" s="3"/>
+      <c r="A69" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>wpl:Documentation-Reporting</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="D69" s="16"/>
       <c r="E69" s="4"/>
       <c r="F69" s="3"/>
@@ -2206,7 +2577,13 @@
       <c r="N69" s="3"/>
     </row>
     <row r="70">
-      <c r="A70" s="3"/>
+      <c r="A70" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>wpl:HumanResourceManagement</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="D70" s="16"/>
       <c r="E70" s="4"/>
       <c r="F70" s="3"/>
@@ -2220,7 +2597,13 @@
       <c r="N70" s="3"/>
     </row>
     <row r="71">
-      <c r="A71" s="3"/>
+      <c r="A71" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>wpl:Meeting-Event</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>130</v>
+      </c>
       <c r="D71" s="16"/>
       <c r="E71" s="4"/>
       <c r="F71" s="3"/>
@@ -2234,7 +2617,13 @@
       <c r="N71" s="3"/>
     </row>
     <row r="72">
-      <c r="A72" s="3"/>
+      <c r="A72" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>wpl:Legal-Regulatory</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>131</v>
+      </c>
       <c r="D72" s="16"/>
       <c r="E72" s="4"/>
       <c r="F72" s="3"/>
@@ -2248,7 +2637,13 @@
       <c r="N72" s="3"/>
     </row>
     <row r="73">
-      <c r="A73" s="3"/>
+      <c r="A73" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>wpl:Ethics-Compliance</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>132</v>
+      </c>
       <c r="D73" s="16"/>
       <c r="E73" s="4"/>
       <c r="F73" s="3"/>
@@ -2262,7 +2657,13 @@
       <c r="N73" s="3"/>
     </row>
     <row r="74">
-      <c r="A74" s="3"/>
+      <c r="A74" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>wpl:Health-Safety</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1"/>
@@ -2295,10 +2696,23 @@
       <c r="N76" s="3"/>
     </row>
     <row r="77">
-      <c r="A77" s="3"/>
+      <c r="A77" s="3" t="str">
+        <f t="shared" ref="A77:A94" si="9">IF(ISBLANK($B77),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B77," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
+        <v>wpl:MarketAnalysis</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="3"/>
+      <c r="A78" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>wpl:SiteSelection</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" s="21"/>
       <c r="D78" s="16"/>
       <c r="E78" s="4"/>
       <c r="F78" s="3"/>
@@ -2312,7 +2726,16 @@
       <c r="N78" s="3"/>
     </row>
     <row r="79">
-      <c r="A79" s="3"/>
+      <c r="A79" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>wpl:Prospecting</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>137</v>
+      </c>
       <c r="D79" s="16"/>
       <c r="E79" s="4"/>
       <c r="F79" s="3"/>
@@ -2326,8 +2749,13 @@
       <c r="N79" s="3"/>
     </row>
     <row r="80">
-      <c r="A80" s="3"/>
-      <c r="B80" s="4"/>
+      <c r="A80" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>wpl:WindResourceAssessment</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -2342,7 +2770,14 @@
       <c r="N80" s="3"/>
     </row>
     <row r="81">
-      <c r="A81" s="3"/>
+      <c r="A81" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>wpl:EnvironmentalImpactAssessment</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C81" s="21"/>
       <c r="D81" s="16"/>
       <c r="E81" s="4"/>
       <c r="F81" s="3"/>
@@ -2356,7 +2791,16 @@
       <c r="N81" s="3"/>
     </row>
     <row r="82">
-      <c r="A82" s="3"/>
+      <c r="A82" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>wpl:Permitting</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>141</v>
+      </c>
       <c r="D82" s="16"/>
       <c r="E82" s="4"/>
       <c r="F82" s="3"/>
@@ -2370,15 +2814,31 @@
       <c r="N82" s="3"/>
     </row>
     <row r="83">
-      <c r="A83" s="3"/>
-      <c r="B83" s="19"/>
+      <c r="A83" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>wpl:VendorSelection</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="3"/>
-      <c r="B84" s="19"/>
+      <c r="A84" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>wpl:RiskAssessment</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="3"/>
+      <c r="A85" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>wpl:FinancialPlanning</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>144</v>
+      </c>
       <c r="C85" s="7"/>
       <c r="D85" s="16"/>
       <c r="E85" s="4"/>
@@ -2393,7 +2853,13 @@
       <c r="N85" s="3"/>
     </row>
     <row r="86">
-      <c r="A86" s="3"/>
+      <c r="A86" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>wpl:Procurement</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>145</v>
+      </c>
       <c r="C86" s="7"/>
       <c r="D86" s="16"/>
       <c r="E86" s="4"/>
@@ -2408,7 +2874,13 @@
       <c r="N86" s="3"/>
     </row>
     <row r="87">
-      <c r="A87" s="3"/>
+      <c r="A87" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>wpl:Commissioning</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="C87" s="7"/>
       <c r="D87" s="16"/>
       <c r="E87" s="4"/>
@@ -2423,7 +2895,13 @@
       <c r="N87" s="3"/>
     </row>
     <row r="88">
-      <c r="A88" s="3"/>
+      <c r="A88" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>wpl:Certification</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>146</v>
+      </c>
       <c r="C88" s="7"/>
       <c r="D88" s="16"/>
       <c r="E88" s="4"/>
@@ -2438,52 +2916,105 @@
       <c r="N88" s="3"/>
     </row>
     <row r="89">
-      <c r="A89" s="3"/>
+      <c r="A89" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>wpl:AnnualEnergyProductionAssessment</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="3"/>
-      <c r="B90" s="4"/>
+      <c r="A90" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>wpl:QualityAssureance-Control</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C90" s="21"/>
       <c r="E90" s="4"/>
     </row>
     <row r="91">
-      <c r="A91" s="3"/>
+      <c r="A91" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>wpl:Monitoring-Reporting</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="3"/>
-      <c r="B92" s="4"/>
+      <c r="A92" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>wpl:FinancialControl</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C92" s="21"/>
       <c r="E92" s="4"/>
     </row>
     <row r="93">
-      <c r="A93" s="3"/>
-      <c r="B93" s="4"/>
+      <c r="A93" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>wpl:Expansion</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C93" s="21"/>
       <c r="E93" s="4"/>
     </row>
     <row r="94">
-      <c r="A94" s="3"/>
-      <c r="B94" s="4"/>
+      <c r="A94" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>wpl:PhaseOut</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C94" s="21"/>
       <c r="E94" s="4"/>
     </row>
     <row r="95">
       <c r="A95" s="1"/>
       <c r="B95" s="12"/>
+      <c r="C95" s="21"/>
       <c r="E95" s="4"/>
     </row>
     <row r="96">
       <c r="A96" s="1"/>
       <c r="B96" s="12"/>
+      <c r="C96" s="21"/>
       <c r="E96" s="4"/>
     </row>
     <row r="97">
       <c r="A97" s="1"/>
       <c r="B97" s="12"/>
+      <c r="C97" s="21"/>
       <c r="E97" s="4"/>
     </row>
     <row r="98">
-      <c r="A98" s="3"/>
+      <c r="A98" s="3" t="str">
+        <f t="shared" ref="A98:A115" si="10">IF(ISBLANK($B98),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B98," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
+        <v>wpl:WindPowerPlantSpecification</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C98" s="21"/>
       <c r="E98" s="4"/>
     </row>
     <row r="99">
-      <c r="A99" s="3"/>
+      <c r="A99" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>wpl:TechnologySelection</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C99" s="21"/>
       <c r="D99" s="16"/>
       <c r="E99" s="4"/>
       <c r="F99" s="3"/>
@@ -2497,63 +3028,171 @@
       <c r="N99" s="3"/>
     </row>
     <row r="100">
-      <c r="A100" s="3"/>
+      <c r="A100" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>wpl:WindPowerPlantLayoutDefinition</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C100" s="21"/>
       <c r="E100" s="4"/>
     </row>
     <row r="101">
-      <c r="A101" s="3"/>
+      <c r="A101" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>wpl:WindPowerPlantSitePreparation</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="3"/>
+      <c r="A102" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>wpl:WindPowerPlantConstruction</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C102" s="21"/>
       <c r="E102" s="4"/>
     </row>
     <row r="103">
-      <c r="A103" s="3"/>
-      <c r="B103" s="4"/>
+      <c r="A103" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>wpl:CivilWorks</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C103" s="21"/>
       <c r="E103" s="4"/>
     </row>
     <row r="104">
-      <c r="A104" s="3"/>
-      <c r="B104" s="4"/>
+      <c r="A104" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>wpl:ElectricalWorks</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C104" s="21"/>
       <c r="E104" s="4"/>
     </row>
     <row r="105">
-      <c r="A105" s="3"/>
-      <c r="B105" s="4"/>
+      <c r="A105" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>wpl:WindTurbineInstallation</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C105" s="21"/>
       <c r="E105" s="4"/>
     </row>
     <row r="106">
-      <c r="A106" s="3"/>
-      <c r="B106" s="4"/>
+      <c r="A106" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>wpl:WindPowerPlantOperation</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C106" s="21"/>
       <c r="E106" s="4"/>
     </row>
     <row r="107">
-      <c r="A107" s="3"/>
+      <c r="A107" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>wpl:Forecasting</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="3"/>
+      <c r="A108" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>wpl:WindPowerPlantSupervision</v>
+      </c>
+      <c r="B108" s="21" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="3"/>
+      <c r="A109" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>wpl:WindPowerPlantOperationalAnalysis</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="3"/>
+      <c r="A110" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>wpl:WidPowerPlantMaintenence</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C110" s="21"/>
       <c r="E110" s="4"/>
     </row>
     <row r="111">
-      <c r="A111" s="3"/>
+      <c r="A111" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>wpl:MaintenceScheduling</v>
+      </c>
+      <c r="B111" s="21" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="3"/>
+      <c r="A112" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>wpl:PredictiveMaintenance</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E112" s="25" t="str">
+        <f>A110</f>
+        <v>wpl:WidPowerPlantMaintenence</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="3"/>
+      <c r="A113" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>wpl:Risk-basedMaintenance</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E113" s="25" t="str">
+        <f>A110</f>
+        <v>wpl:WidPowerPlantMaintenence</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="3"/>
+      <c r="A114" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>wpl:EquipmentServicing</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="3"/>
+      <c r="A115" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>wpl:WindPowerPlantControl</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C115" s="21"/>
       <c r="E115" s="4"/>
     </row>
     <row r="116">
@@ -2605,29 +3244,70 @@
       <c r="N118" s="3"/>
     </row>
     <row r="119">
-      <c r="A119" s="3"/>
+      <c r="A119" s="3" t="str">
+        <f t="shared" ref="A119:A144" si="11">IF(ISBLANK($B119),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B119," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
+        <v>wpl:WindTurbineSpecification</v>
+      </c>
+      <c r="B119" s="21" t="s">
+        <v>171</v>
+      </c>
       <c r="E119" s="4"/>
     </row>
     <row r="120">
-      <c r="A120" s="3"/>
+      <c r="A120" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:WindTurbineConceptDesign</v>
+      </c>
+      <c r="B120" s="21" t="s">
+        <v>172</v>
+      </c>
       <c r="E120" s="4"/>
     </row>
     <row r="121">
-      <c r="A121" s="3"/>
+      <c r="A121" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:WindTurbineDesign</v>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>173</v>
+      </c>
       <c r="E121" s="4"/>
     </row>
     <row r="122">
-      <c r="A122" s="3"/>
+      <c r="A122" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:WindTurbineDesignValidation</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="3"/>
+      <c r="A123" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:WindTurbineManufacturingPlanning</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="3"/>
+      <c r="A124" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:WindTurbineComponentsManufacturing</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" s="3"/>
-      <c r="B125" s="4"/>
+      <c r="A125" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:WindTurbineComponentsAssembly</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -2642,63 +3322,177 @@
       <c r="N125" s="3"/>
     </row>
     <row r="126">
-      <c r="A126" s="3"/>
+      <c r="A126" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:WindTurbineComponentsTransportaion</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" s="3"/>
+      <c r="A127" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:WindTurbineAssembly</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" s="3"/>
+      <c r="A128" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:WindTurbineCertification</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" s="3"/>
+      <c r="A129" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:WindTurbineTesting</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" s="3"/>
+      <c r="A130" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:WindTurbineVending</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" s="3"/>
+      <c r="A131" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:WindTurbineOperation-Monitoring</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" s="3"/>
+      <c r="A132" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:WindTurbineControl</v>
+      </c>
+      <c r="B132" s="21" t="s">
+        <v>184</v>
+      </c>
       <c r="E132" s="4"/>
     </row>
     <row r="133">
-      <c r="A133" s="3"/>
+      <c r="A133" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:Inspeciton</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" s="3"/>
+      <c r="A134" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:StructuralHealthMonitoring</v>
+      </c>
+      <c r="B134" s="21" t="s">
+        <v>186</v>
+      </c>
       <c r="E134" s="4"/>
     </row>
     <row r="135">
-      <c r="A135" s="3"/>
+      <c r="A135" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:Real-TimeMonitoring</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" s="3"/>
+      <c r="A136" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:FailureDetection</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" s="3"/>
+      <c r="A137" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:FaultDiagnosis</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" s="3"/>
+      <c r="A138" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:WindTurbineVendorSupport-Maintenence</v>
+      </c>
+      <c r="B138" s="21" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" s="3"/>
+      <c r="A139" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:Upgrade-Retrofits</v>
+      </c>
+      <c r="B139" s="21" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" s="3"/>
+      <c r="A140" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:WindTurbineDecomissioning</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="141">
-      <c r="A141" s="3"/>
+      <c r="A141" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:RemainingUsefulLifeCalculation</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="142">
-      <c r="A142" s="3"/>
+      <c r="A142" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:WindTurbineUsefulLifeExtension</v>
+      </c>
+      <c r="B142" s="21" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="143">
-      <c r="A143" s="3"/>
+      <c r="A143" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:WindTurbineDissasembly</v>
+      </c>
+      <c r="B143" s="21" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" s="3"/>
+      <c r="A144" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>wpl:WindTurbineComponentsRecycling</v>
+      </c>
+      <c r="B144" s="21" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="3"/>
@@ -2729,14 +3523,14 @@
     </row>
     <row r="153">
       <c r="A153" s="3" t="str">
-        <f t="shared" ref="A153:A154" si="7">IF(ISBLANK($B153),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B153," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
+        <f t="shared" ref="A153:A154" si="12">IF(ISBLANK($B153),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B153," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
         <v/>
       </c>
       <c r="B153" s="21"/>
     </row>
     <row r="154">
       <c r="A154" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -347,261 +347,6 @@
   </si>
   <si>
     <t>Those processes performed to formally complete or close a project, phase, or contract.</t>
-  </si>
-  <si>
-    <t>Research &amp; Develeopment</t>
-  </si>
-  <si>
-    <t>Analysis &amp; Modelling</t>
-  </si>
-  <si>
-    <t>Sensitivity Analysis</t>
-  </si>
-  <si>
-    <t>Uncertainty Quantification</t>
-  </si>
-  <si>
-    <t>Simulation</t>
-  </si>
-  <si>
-    <t>SWOT analysis</t>
-  </si>
-  <si>
-    <t>What-if Scenario</t>
-  </si>
-  <si>
-    <t>Conceptual Modelling</t>
-  </si>
-  <si>
-    <t>Mathematical Modelling</t>
-  </si>
-  <si>
-    <t>Data Analysis</t>
-  </si>
-  <si>
-    <t>Stakeholder Communication</t>
-  </si>
-  <si>
-    <t>Information Security Management</t>
-  </si>
-  <si>
-    <t>Change Management</t>
-  </si>
-  <si>
-    <t>Financial Managemnt</t>
-  </si>
-  <si>
-    <t>Knowledge Management</t>
-  </si>
-  <si>
-    <t>Data Management</t>
-  </si>
-  <si>
-    <t>Documentation &amp; Reporting</t>
-  </si>
-  <si>
-    <t>Human Resource Management</t>
-  </si>
-  <si>
-    <t>Meeting &amp; Event</t>
-  </si>
-  <si>
-    <t>Legal &amp; Regulatory</t>
-  </si>
-  <si>
-    <t>Ethics &amp; Compliance</t>
-  </si>
-  <si>
-    <t>Health &amp; Safety</t>
-  </si>
-  <si>
-    <t>Market Analysis</t>
-  </si>
-  <si>
-    <t>Site Selection</t>
-  </si>
-  <si>
-    <t>Prospecting</t>
-  </si>
-  <si>
-    <t>Rough energy yield estimates and comparisons at different potential sites</t>
-  </si>
-  <si>
-    <t>Wind Resource Assessment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environmental Impact Assessment </t>
-  </si>
-  <si>
-    <t>Permitting</t>
-  </si>
-  <si>
-    <t>Environmental permits, land permits</t>
-  </si>
-  <si>
-    <t>Vendor Selection</t>
-  </si>
-  <si>
-    <t>Risk Assessment</t>
-  </si>
-  <si>
-    <t>Financial Planning</t>
-  </si>
-  <si>
-    <t>Procurement</t>
-  </si>
-  <si>
-    <t>Certification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annual Energy Production Assessment </t>
-  </si>
-  <si>
-    <t>Quality Assureance &amp; Control</t>
-  </si>
-  <si>
-    <t>Monitoring &amp; Reporting</t>
-  </si>
-  <si>
-    <t>Financial Control</t>
-  </si>
-  <si>
-    <t>Expansion</t>
-  </si>
-  <si>
-    <t>Phase Out</t>
-  </si>
-  <si>
-    <t>Wind Power Plant Specification</t>
-  </si>
-  <si>
-    <t>Technology Selection</t>
-  </si>
-  <si>
-    <t>Wind Power Plant Layout Definition</t>
-  </si>
-  <si>
-    <t>Wind Power Plant Site Preparation</t>
-  </si>
-  <si>
-    <t>Wind Power Plant Construction</t>
-  </si>
-  <si>
-    <t>Civil Works</t>
-  </si>
-  <si>
-    <t>Electrical Works</t>
-  </si>
-  <si>
-    <t>Wind Turbine Installation</t>
-  </si>
-  <si>
-    <t>Wind Power Plant Operation</t>
-  </si>
-  <si>
-    <t>Forecasting</t>
-  </si>
-  <si>
-    <t>Wind Power Plant  Supervision</t>
-  </si>
-  <si>
-    <t>Wind Power Plant Operational Analysis</t>
-  </si>
-  <si>
-    <t>Wid Power Plant Maintenence</t>
-  </si>
-  <si>
-    <t>Maintence Scheduling</t>
-  </si>
-  <si>
-    <t>Predictive Maintenance</t>
-  </si>
-  <si>
-    <t>Risk-based Maintenance</t>
-  </si>
-  <si>
-    <t>Equipment Servicing</t>
-  </si>
-  <si>
-    <t>Wind Power Plant Control</t>
-  </si>
-  <si>
-    <t>Wind Turbine Specification</t>
-  </si>
-  <si>
-    <t>Wind Turbine Concept Design</t>
-  </si>
-  <si>
-    <t>Wind Turbine Design</t>
-  </si>
-  <si>
-    <t>Wind Turbine Design Validation</t>
-  </si>
-  <si>
-    <t>Wind Turbine Manufacturing Planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wind Turbine Components Manufacturing </t>
-  </si>
-  <si>
-    <t>Wind Turbine Components Assembly</t>
-  </si>
-  <si>
-    <t>Wind Turbine Components Transportaion</t>
-  </si>
-  <si>
-    <t>Wind Turbine Assembly</t>
-  </si>
-  <si>
-    <t>Wind Turbine Certification</t>
-  </si>
-  <si>
-    <t>Wind Turbine Testing</t>
-  </si>
-  <si>
-    <t>Wind Turbine Vending</t>
-  </si>
-  <si>
-    <t>Wind Turbine Operation &amp; Monitoring</t>
-  </si>
-  <si>
-    <t>Wind Turbine Control</t>
-  </si>
-  <si>
-    <t>Inspeciton</t>
-  </si>
-  <si>
-    <t>Structural Health Monitoring</t>
-  </si>
-  <si>
-    <t>Real-Time Monitoring</t>
-  </si>
-  <si>
-    <t>Failure Detection</t>
-  </si>
-  <si>
-    <t>Fault Diagnosis</t>
-  </si>
-  <si>
-    <t>Wind Turbine Vendor Support &amp; Maintenence</t>
-  </si>
-  <si>
-    <t>Upgrade &amp; Retrofits</t>
-  </si>
-  <si>
-    <t>Wind Turbine Decomissioning</t>
-  </si>
-  <si>
-    <t>Remaining Useful Life Calculation</t>
-  </si>
-  <si>
-    <t>Wind Turbine Useful Life Extension</t>
-  </si>
-  <si>
-    <t>Wind Turbine Dissasembly</t>
-  </si>
-  <si>
-    <t>Wind Turbine Components Recycling</t>
   </si>
 </sst>
 </file>
@@ -710,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -786,7 +531,6 @@
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2303,31 +2047,13 @@
       <c r="B52" s="21"/>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="str">
-        <f t="shared" ref="A53:A74" si="8">IF(ISBLANK($B53),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B53," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
-        <v>wpl:Research-Develeopment</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>112</v>
-      </c>
+      <c r="A53" s="3"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>wpl:Analysis-Modelling</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>113</v>
-      </c>
+      <c r="A54" s="3"/>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>wpl:SensitivityAnalysis</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>114</v>
-      </c>
+      <c r="A55" s="3"/>
       <c r="D55" s="16"/>
       <c r="E55" s="4"/>
       <c r="F55" s="3"/>
@@ -2341,22 +2067,10 @@
       <c r="N55" s="3"/>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>wpl:UncertaintyQuantification</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>115</v>
-      </c>
+      <c r="A56" s="3"/>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>wpl:Simulation</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>116</v>
-      </c>
+      <c r="A57" s="3"/>
       <c r="D57" s="16"/>
       <c r="E57" s="4"/>
       <c r="F57" s="3"/>
@@ -2370,13 +2084,7 @@
       <c r="N57" s="3"/>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>wpl:SWOTanalysis</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>117</v>
-      </c>
+      <c r="A58" s="3"/>
       <c r="D58" s="16"/>
       <c r="E58" s="4"/>
       <c r="F58" s="3"/>
@@ -2390,13 +2098,7 @@
       <c r="N58" s="3"/>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>wpl:What-ifScenario</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>118</v>
-      </c>
+      <c r="A59" s="3"/>
       <c r="D59" s="16"/>
       <c r="E59" s="4"/>
       <c r="F59" s="3"/>
@@ -2410,13 +2112,7 @@
       <c r="N59" s="3"/>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>wpl:ConceptualModelling</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>119</v>
-      </c>
+      <c r="A60" s="3"/>
       <c r="D60" s="16"/>
       <c r="E60" s="4"/>
       <c r="F60" s="3"/>
@@ -2430,13 +2126,7 @@
       <c r="N60" s="3"/>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>wpl:MathematicalModelling</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>120</v>
-      </c>
+      <c r="A61" s="3"/>
       <c r="D61" s="16"/>
       <c r="E61" s="4"/>
       <c r="F61" s="3"/>
@@ -2450,13 +2140,7 @@
       <c r="N61" s="3"/>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>wpl:DataAnalysis</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>121</v>
-      </c>
+      <c r="A62" s="3"/>
       <c r="D62" s="16"/>
       <c r="E62" s="4"/>
       <c r="F62" s="3"/>
@@ -2470,31 +2154,13 @@
       <c r="N62" s="3"/>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>wpl:StakeholderCommunication</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>122</v>
-      </c>
+      <c r="A63" s="3"/>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>wpl:InformationSecurityManagement</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>123</v>
-      </c>
+      <c r="A64" s="3"/>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>wpl:ChangeManagement</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>124</v>
-      </c>
+      <c r="A65" s="3"/>
       <c r="D65" s="16"/>
       <c r="E65" s="4"/>
       <c r="F65" s="3"/>
@@ -2508,13 +2174,7 @@
       <c r="N65" s="3"/>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>wpl:FinancialManagemnt</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>125</v>
-      </c>
+      <c r="A66" s="3"/>
       <c r="D66" s="16"/>
       <c r="E66" s="4"/>
       <c r="F66" s="3"/>
@@ -2528,22 +2188,10 @@
       <c r="N66" s="3"/>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>wpl:KnowledgeManagement</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>126</v>
-      </c>
+      <c r="A67" s="3"/>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>wpl:DataManagement</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>127</v>
-      </c>
+      <c r="A68" s="3"/>
       <c r="D68" s="16"/>
       <c r="E68" s="4"/>
       <c r="F68" s="3"/>
@@ -2557,13 +2205,7 @@
       <c r="N68" s="3"/>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>wpl:Documentation-Reporting</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>128</v>
-      </c>
+      <c r="A69" s="3"/>
       <c r="D69" s="16"/>
       <c r="E69" s="4"/>
       <c r="F69" s="3"/>
@@ -2577,13 +2219,7 @@
       <c r="N69" s="3"/>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>wpl:HumanResourceManagement</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>129</v>
-      </c>
+      <c r="A70" s="3"/>
       <c r="D70" s="16"/>
       <c r="E70" s="4"/>
       <c r="F70" s="3"/>
@@ -2597,13 +2233,7 @@
       <c r="N70" s="3"/>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>wpl:Meeting-Event</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>130</v>
-      </c>
+      <c r="A71" s="3"/>
       <c r="D71" s="16"/>
       <c r="E71" s="4"/>
       <c r="F71" s="3"/>
@@ -2617,13 +2247,7 @@
       <c r="N71" s="3"/>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>wpl:Legal-Regulatory</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="A72" s="3"/>
       <c r="D72" s="16"/>
       <c r="E72" s="4"/>
       <c r="F72" s="3"/>
@@ -2637,13 +2261,7 @@
       <c r="N72" s="3"/>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>wpl:Ethics-Compliance</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>132</v>
-      </c>
+      <c r="A73" s="3"/>
       <c r="D73" s="16"/>
       <c r="E73" s="4"/>
       <c r="F73" s="3"/>
@@ -2657,13 +2275,7 @@
       <c r="N73" s="3"/>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>wpl:Health-Safety</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="A74" s="3"/>
     </row>
     <row r="75">
       <c r="A75" s="1"/>
@@ -2696,23 +2308,10 @@
       <c r="N76" s="3"/>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="str">
-        <f t="shared" ref="A77:A94" si="9">IF(ISBLANK($B77),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B77," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
-        <v>wpl:MarketAnalysis</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>134</v>
-      </c>
+      <c r="A77" s="3"/>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>wpl:SiteSelection</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C78" s="21"/>
+      <c r="A78" s="3"/>
       <c r="D78" s="16"/>
       <c r="E78" s="4"/>
       <c r="F78" s="3"/>
@@ -2726,16 +2325,7 @@
       <c r="N78" s="3"/>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>wpl:Prospecting</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>137</v>
-      </c>
+      <c r="A79" s="3"/>
       <c r="D79" s="16"/>
       <c r="E79" s="4"/>
       <c r="F79" s="3"/>
@@ -2749,13 +2339,8 @@
       <c r="N79" s="3"/>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>wpl:WindResourceAssessment</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="A80" s="3"/>
+      <c r="B80" s="4"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -2770,14 +2355,7 @@
       <c r="N80" s="3"/>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>wpl:EnvironmentalImpactAssessment</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C81" s="21"/>
+      <c r="A81" s="3"/>
       <c r="D81" s="16"/>
       <c r="E81" s="4"/>
       <c r="F81" s="3"/>
@@ -2791,16 +2369,7 @@
       <c r="N81" s="3"/>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>wpl:Permitting</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>141</v>
-      </c>
+      <c r="A82" s="3"/>
       <c r="D82" s="16"/>
       <c r="E82" s="4"/>
       <c r="F82" s="3"/>
@@ -2814,31 +2383,15 @@
       <c r="N82" s="3"/>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>wpl:VendorSelection</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>142</v>
-      </c>
+      <c r="A83" s="3"/>
+      <c r="B83" s="19"/>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>wpl:RiskAssessment</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>143</v>
-      </c>
+      <c r="A84" s="3"/>
+      <c r="B84" s="19"/>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>wpl:FinancialPlanning</v>
-      </c>
-      <c r="B85" s="21" t="s">
-        <v>144</v>
-      </c>
+      <c r="A85" s="3"/>
       <c r="C85" s="7"/>
       <c r="D85" s="16"/>
       <c r="E85" s="4"/>
@@ -2853,13 +2406,7 @@
       <c r="N85" s="3"/>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>wpl:Procurement</v>
-      </c>
-      <c r="B86" s="21" t="s">
-        <v>145</v>
-      </c>
+      <c r="A86" s="3"/>
       <c r="C86" s="7"/>
       <c r="D86" s="16"/>
       <c r="E86" s="4"/>
@@ -2874,13 +2421,7 @@
       <c r="N86" s="3"/>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>wpl:Commissioning</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>57</v>
-      </c>
+      <c r="A87" s="3"/>
       <c r="C87" s="7"/>
       <c r="D87" s="16"/>
       <c r="E87" s="4"/>
@@ -2895,13 +2436,7 @@
       <c r="N87" s="3"/>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>wpl:Certification</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>146</v>
-      </c>
+      <c r="A88" s="3"/>
       <c r="C88" s="7"/>
       <c r="D88" s="16"/>
       <c r="E88" s="4"/>
@@ -2916,105 +2451,52 @@
       <c r="N88" s="3"/>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>wpl:AnnualEnergyProductionAssessment</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>147</v>
-      </c>
+      <c r="A89" s="3"/>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>wpl:QualityAssureance-Control</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C90" s="21"/>
+      <c r="A90" s="3"/>
+      <c r="B90" s="4"/>
       <c r="E90" s="4"/>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>wpl:Monitoring-Reporting</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>149</v>
-      </c>
+      <c r="A91" s="3"/>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>wpl:FinancialControl</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C92" s="21"/>
+      <c r="A92" s="3"/>
+      <c r="B92" s="4"/>
       <c r="E92" s="4"/>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>wpl:Expansion</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C93" s="21"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="4"/>
       <c r="E93" s="4"/>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>wpl:PhaseOut</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C94" s="21"/>
+      <c r="A94" s="3"/>
+      <c r="B94" s="4"/>
       <c r="E94" s="4"/>
     </row>
     <row r="95">
       <c r="A95" s="1"/>
       <c r="B95" s="12"/>
-      <c r="C95" s="21"/>
       <c r="E95" s="4"/>
     </row>
     <row r="96">
       <c r="A96" s="1"/>
       <c r="B96" s="12"/>
-      <c r="C96" s="21"/>
       <c r="E96" s="4"/>
     </row>
     <row r="97">
       <c r="A97" s="1"/>
       <c r="B97" s="12"/>
-      <c r="C97" s="21"/>
       <c r="E97" s="4"/>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="str">
-        <f t="shared" ref="A98:A115" si="10">IF(ISBLANK($B98),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B98," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
-        <v>wpl:WindPowerPlantSpecification</v>
-      </c>
-      <c r="B98" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="C98" s="21"/>
+      <c r="A98" s="3"/>
       <c r="E98" s="4"/>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>wpl:TechnologySelection</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C99" s="21"/>
+      <c r="A99" s="3"/>
       <c r="D99" s="16"/>
       <c r="E99" s="4"/>
       <c r="F99" s="3"/>
@@ -3028,171 +2510,63 @@
       <c r="N99" s="3"/>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>wpl:WindPowerPlantLayoutDefinition</v>
-      </c>
-      <c r="B100" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C100" s="21"/>
+      <c r="A100" s="3"/>
       <c r="E100" s="4"/>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>wpl:WindPowerPlantSitePreparation</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>156</v>
-      </c>
+      <c r="A101" s="3"/>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>wpl:WindPowerPlantConstruction</v>
-      </c>
-      <c r="B102" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C102" s="21"/>
+      <c r="A102" s="3"/>
       <c r="E102" s="4"/>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>wpl:CivilWorks</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C103" s="21"/>
+      <c r="A103" s="3"/>
+      <c r="B103" s="4"/>
       <c r="E103" s="4"/>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>wpl:ElectricalWorks</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C104" s="21"/>
+      <c r="A104" s="3"/>
+      <c r="B104" s="4"/>
       <c r="E104" s="4"/>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>wpl:WindTurbineInstallation</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C105" s="21"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="4"/>
       <c r="E105" s="4"/>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>wpl:WindPowerPlantOperation</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C106" s="21"/>
+      <c r="A106" s="3"/>
+      <c r="B106" s="4"/>
       <c r="E106" s="4"/>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>wpl:Forecasting</v>
-      </c>
-      <c r="B107" s="21" t="s">
-        <v>162</v>
-      </c>
+      <c r="A107" s="3"/>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>wpl:WindPowerPlantSupervision</v>
-      </c>
-      <c r="B108" s="21" t="s">
-        <v>163</v>
-      </c>
+      <c r="A108" s="3"/>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>wpl:WindPowerPlantOperationalAnalysis</v>
-      </c>
-      <c r="B109" s="21" t="s">
-        <v>164</v>
-      </c>
+      <c r="A109" s="3"/>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>wpl:WidPowerPlantMaintenence</v>
-      </c>
-      <c r="B110" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C110" s="21"/>
+      <c r="A110" s="3"/>
       <c r="E110" s="4"/>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>wpl:MaintenceScheduling</v>
-      </c>
-      <c r="B111" s="21" t="s">
-        <v>166</v>
-      </c>
+      <c r="A111" s="3"/>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>wpl:PredictiveMaintenance</v>
-      </c>
-      <c r="B112" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="E112" s="25" t="str">
-        <f>A110</f>
-        <v>wpl:WidPowerPlantMaintenence</v>
-      </c>
+      <c r="A112" s="3"/>
     </row>
     <row r="113">
-      <c r="A113" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>wpl:Risk-basedMaintenance</v>
-      </c>
-      <c r="B113" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E113" s="25" t="str">
-        <f>A110</f>
-        <v>wpl:WidPowerPlantMaintenence</v>
-      </c>
+      <c r="A113" s="3"/>
     </row>
     <row r="114">
-      <c r="A114" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>wpl:EquipmentServicing</v>
-      </c>
-      <c r="B114" s="21" t="s">
-        <v>169</v>
-      </c>
+      <c r="A114" s="3"/>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>wpl:WindPowerPlantControl</v>
-      </c>
-      <c r="B115" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="C115" s="21"/>
+      <c r="A115" s="3"/>
       <c r="E115" s="4"/>
     </row>
     <row r="116">
@@ -3244,70 +2618,29 @@
       <c r="N118" s="3"/>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="str">
-        <f t="shared" ref="A119:A144" si="11">IF(ISBLANK($B119),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B119," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
-        <v>wpl:WindTurbineSpecification</v>
-      </c>
-      <c r="B119" s="21" t="s">
-        <v>171</v>
-      </c>
+      <c r="A119" s="3"/>
       <c r="E119" s="4"/>
     </row>
     <row r="120">
-      <c r="A120" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:WindTurbineConceptDesign</v>
-      </c>
-      <c r="B120" s="21" t="s">
-        <v>172</v>
-      </c>
+      <c r="A120" s="3"/>
       <c r="E120" s="4"/>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:WindTurbineDesign</v>
-      </c>
-      <c r="B121" s="21" t="s">
-        <v>173</v>
-      </c>
+      <c r="A121" s="3"/>
       <c r="E121" s="4"/>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:WindTurbineDesignValidation</v>
-      </c>
-      <c r="B122" s="21" t="s">
-        <v>174</v>
-      </c>
+      <c r="A122" s="3"/>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:WindTurbineManufacturingPlanning</v>
-      </c>
-      <c r="B123" s="21" t="s">
-        <v>175</v>
-      </c>
+      <c r="A123" s="3"/>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:WindTurbineComponentsManufacturing</v>
-      </c>
-      <c r="B124" s="21" t="s">
-        <v>176</v>
-      </c>
+      <c r="A124" s="3"/>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:WindTurbineComponentsAssembly</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>177</v>
-      </c>
+      <c r="A125" s="3"/>
+      <c r="B125" s="4"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -3322,177 +2655,63 @@
       <c r="N125" s="3"/>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:WindTurbineComponentsTransportaion</v>
-      </c>
-      <c r="B126" s="21" t="s">
-        <v>178</v>
-      </c>
+      <c r="A126" s="3"/>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:WindTurbineAssembly</v>
-      </c>
-      <c r="B127" s="21" t="s">
-        <v>179</v>
-      </c>
+      <c r="A127" s="3"/>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:WindTurbineCertification</v>
-      </c>
-      <c r="B128" s="21" t="s">
-        <v>180</v>
-      </c>
+      <c r="A128" s="3"/>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:WindTurbineTesting</v>
-      </c>
-      <c r="B129" s="21" t="s">
-        <v>181</v>
-      </c>
+      <c r="A129" s="3"/>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:WindTurbineVending</v>
-      </c>
-      <c r="B130" s="21" t="s">
-        <v>182</v>
-      </c>
+      <c r="A130" s="3"/>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:WindTurbineOperation-Monitoring</v>
-      </c>
-      <c r="B131" s="21" t="s">
-        <v>183</v>
-      </c>
+      <c r="A131" s="3"/>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:WindTurbineControl</v>
-      </c>
-      <c r="B132" s="21" t="s">
-        <v>184</v>
-      </c>
+      <c r="A132" s="3"/>
       <c r="E132" s="4"/>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:Inspeciton</v>
-      </c>
-      <c r="B133" s="21" t="s">
-        <v>185</v>
-      </c>
+      <c r="A133" s="3"/>
     </row>
     <row r="134">
-      <c r="A134" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:StructuralHealthMonitoring</v>
-      </c>
-      <c r="B134" s="21" t="s">
-        <v>186</v>
-      </c>
+      <c r="A134" s="3"/>
       <c r="E134" s="4"/>
     </row>
     <row r="135">
-      <c r="A135" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:Real-TimeMonitoring</v>
-      </c>
-      <c r="B135" s="21" t="s">
-        <v>187</v>
-      </c>
+      <c r="A135" s="3"/>
     </row>
     <row r="136">
-      <c r="A136" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:FailureDetection</v>
-      </c>
-      <c r="B136" s="21" t="s">
-        <v>188</v>
-      </c>
+      <c r="A136" s="3"/>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:FaultDiagnosis</v>
-      </c>
-      <c r="B137" s="21" t="s">
-        <v>189</v>
-      </c>
+      <c r="A137" s="3"/>
     </row>
     <row r="138">
-      <c r="A138" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:WindTurbineVendorSupport-Maintenence</v>
-      </c>
-      <c r="B138" s="21" t="s">
-        <v>190</v>
-      </c>
+      <c r="A138" s="3"/>
     </row>
     <row r="139">
-      <c r="A139" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:Upgrade-Retrofits</v>
-      </c>
-      <c r="B139" s="21" t="s">
-        <v>191</v>
-      </c>
+      <c r="A139" s="3"/>
     </row>
     <row r="140">
-      <c r="A140" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:WindTurbineDecomissioning</v>
-      </c>
-      <c r="B140" s="21" t="s">
-        <v>192</v>
-      </c>
+      <c r="A140" s="3"/>
     </row>
     <row r="141">
-      <c r="A141" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:RemainingUsefulLifeCalculation</v>
-      </c>
-      <c r="B141" s="21" t="s">
-        <v>193</v>
-      </c>
+      <c r="A141" s="3"/>
     </row>
     <row r="142">
-      <c r="A142" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:WindTurbineUsefulLifeExtension</v>
-      </c>
-      <c r="B142" s="21" t="s">
-        <v>194</v>
-      </c>
+      <c r="A142" s="3"/>
     </row>
     <row r="143">
-      <c r="A143" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:WindTurbineDissasembly</v>
-      </c>
-      <c r="B143" s="21" t="s">
-        <v>195</v>
-      </c>
+      <c r="A143" s="3"/>
     </row>
     <row r="144">
-      <c r="A144" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>wpl:WindTurbineComponentsRecycling</v>
-      </c>
-      <c r="B144" s="21" t="s">
-        <v>196</v>
-      </c>
+      <c r="A144" s="3"/>
     </row>
     <row r="145">
       <c r="A145" s="3"/>
@@ -3523,14 +2742,14 @@
     </row>
     <row r="153">
       <c r="A153" s="3" t="str">
-        <f t="shared" ref="A153:A154" si="12">IF(ISBLANK($B153),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B153," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
+        <f t="shared" ref="A153:A154" si="8">IF(ISBLANK($B153),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B153," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
         <v/>
       </c>
       <c r="B153" s="21"/>
     </row>
     <row r="154">
       <c r="A154" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -79,7 +79,7 @@
     <t>owl:versionInfo</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Identifier</t>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -127,10 +127,7 @@
     <t>Wind Energy Project Life-cycle Phase</t>
   </si>
   <si>
-    <t>wpl:0.Identification</t>
-  </si>
-  <si>
-    <t>Identification</t>
+    <t>1 Identification</t>
   </si>
   <si>
     <t>Initial stage where potential wind energy sites are identified based on criteria like wind resource, land availability, and environmental factors.</t>
@@ -139,91 +136,73 @@
     <t>Screening, Site Selection, Pilot Study</t>
   </si>
   <si>
-    <t>wpl:1.Feasibility</t>
+    <t>2 Feasibility</t>
+  </si>
+  <si>
+    <t>Detailed analysis of the identified site, including technical, environmental, and financial assessments to determine project viability.</t>
+  </si>
+  <si>
+    <t>3 Development</t>
+  </si>
+  <si>
+    <t>Preparation of detailed plans and engineering designs, wind turbine technology and vendor selection, securing permits, land leases, financing, and stakeholder agreements required to move forward with the project.</t>
+  </si>
+  <si>
+    <t>Design, Planning &amp; Permitting</t>
+  </si>
+  <si>
+    <t>4 Pre-Construction</t>
+  </si>
+  <si>
+    <t>Finalizing detailed engineering designs, procurement of materials, and preparation of the site for construction, including contractor selection.</t>
+  </si>
+  <si>
+    <t>Purchase, Procurement</t>
+  </si>
+  <si>
+    <t>5 Construction</t>
+  </si>
+  <si>
+    <t>Physical construction of the wind farm, including infrastructure setup (turbines, roads, electrical connections) and project management oversight.</t>
+  </si>
+  <si>
+    <t>6  Commissioning</t>
+  </si>
+  <si>
+    <t>Testing and certifying that the wind farm operates according to design specifications before becoming fully operational.</t>
+  </si>
+  <si>
+    <t>7 Operation &amp; Maintenance</t>
+  </si>
+  <si>
+    <t>Ongoing operation of the wind farm, including regular monitoring, maintenance, and optimization to ensure maximum energy production and efficiency.</t>
+  </si>
+  <si>
+    <t>Middle of life</t>
+  </si>
+  <si>
+    <t>8 Decommissioning</t>
+  </si>
+  <si>
+    <t>End-of-life activities for the wind farm, involving dismantling turbines and infrastructure, restoring the site, and recycling or disposing of materials.</t>
+  </si>
+  <si>
+    <t>End of life</t>
+  </si>
+  <si>
+    <t>Reference Project Life-cycle Phase</t>
+  </si>
+  <si>
+    <t>Project phase is a collection of logically related project activities (processes) that culminates in the completion of one or more deliverables. Project Life Cycle is the series of phases that a project passes through from its start to its completion.</t>
+  </si>
+  <si>
+    <t>https://www.pmi.org/</t>
+  </si>
+  <si>
+    <t>urn:ISBN:9781628256659</t>
   </si>
   <si>
     <t>Feasibility</t>
-  </si>
-  <si>
-    <t>Detailed analysis of the identified site, including technical, environmental, and financial assessments to determine project viability.</t>
-  </si>
-  <si>
-    <t>wpl:2.Development</t>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
-    <t>Preparation of detailed plans and engineering designs, wind turbine technology and vendor selection, securing permits, land leases, financing, and stakeholder agreements required to move forward with the project.</t>
-  </si>
-  <si>
-    <t>Design, Planning &amp; Permitting</t>
-  </si>
-  <si>
-    <t>wpl:3.Pre-Construction</t>
-  </si>
-  <si>
-    <t>Pre-Construction</t>
-  </si>
-  <si>
-    <t>Finalizing detailed engineering designs, procurement of materials, and preparation of the site for construction, including contractor selection.</t>
-  </si>
-  <si>
-    <t>Purchase, Procurement</t>
-  </si>
-  <si>
-    <t>wpl:4.Construction</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Physical construction of the wind farm, including infrastructure setup (turbines, roads, electrical connections) and project management oversight.</t>
-  </si>
-  <si>
-    <t>wpl:5.Commissioning</t>
-  </si>
-  <si>
-    <t>Commissioning</t>
-  </si>
-  <si>
-    <t>Testing and certifying that the wind farm operates according to design specifications before becoming fully operational.</t>
-  </si>
-  <si>
-    <t>wpl:6.Operation-Maintenance</t>
-  </si>
-  <si>
-    <t>Operation &amp; Maintenance</t>
-  </si>
-  <si>
-    <t>Ongoing operation of the wind farm, including regular monitoring, maintenance, and optimization to ensure maximum energy production and efficiency.</t>
-  </si>
-  <si>
-    <t>Middle of life</t>
-  </si>
-  <si>
-    <t>wpl:7.Decommissioning</t>
-  </si>
-  <si>
-    <t>Decommissioning</t>
-  </si>
-  <si>
-    <t>End-of-life activities for the wind farm, involving dismantling turbines and infrastructure, restoring the site, and recycling or disposing of materials.</t>
-  </si>
-  <si>
-    <t>End of life</t>
-  </si>
-  <si>
-    <t>Reference Project Life-cycle Phase</t>
-  </si>
-  <si>
-    <t>Project phase is a collection of logically related project activities (processes) that culminates in the completion of one or more deliverables. Project Life Cycle is the series of phases that a project passes through from its start to its completion.</t>
-  </si>
-  <si>
-    <t>https://www.pmi.org/</t>
-  </si>
-  <si>
-    <t>urn:ISBN:9781628256659</t>
   </si>
   <si>
     <t>This phase determines if the business case is valid and if the organization has the capability to deliver the intended outcome.</t>
@@ -1081,7 +1060,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="str">
-        <f t="shared" ref="A16:A17" si="1">IF(ISBLANK($B16),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B16," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
+        <f t="shared" ref="A16:A51" si="1">IF(ISBLANK($B16),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B16," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
         <v>wpl:LifeCyclePhase</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -1125,17 +1104,18 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wpl:1Identification</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="C18" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="D18" s="20" t="s">
         <v>40</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>41</v>
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" ref="E18:E25" si="2">$A$17</f>
@@ -1152,14 +1132,15 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wpl:2Feasibility</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>44</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="4" t="str">
@@ -1177,17 +1158,18 @@
       <c r="N19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wpl:3Development</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>48</v>
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1204,17 +1186,18 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>49</v>
+      <c r="A21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wpl:4Pre-Construction</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1231,14 +1214,15 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>53</v>
+      <c r="A22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wpl:5Construction</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="4" t="str">
@@ -1256,14 +1240,15 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
-        <v>56</v>
+      <c r="A23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wpl:6Commissioning</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="4" t="str">
@@ -1281,17 +1266,18 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
-        <v>59</v>
+      <c r="A24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wpl:7Operation-Maintenance</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1308,17 +1294,18 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
-        <v>63</v>
+      <c r="A25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wpl:8Decommissioning</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1336,14 +1323,14 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="str">
-        <f t="shared" ref="A26:A51" si="3">IF(ISBLANK($B26),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B26," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
+        <f t="shared" si="1"/>
         <v>wpl:ReferenceProjectLife-cyclePhase</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="4" t="str">
@@ -1354,11 +1341,11 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -1366,29 +1353,29 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:Feasibility</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="4" t="str">
-        <f t="shared" ref="E27:E33" si="4">$A$26</f>
+        <f t="shared" ref="E27:E33" si="3">$A$26</f>
         <v>wpl:ReferenceProjectLife-cyclePhase</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -1396,29 +1383,29 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:Design</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>wpl:ReferenceProjectLife-cyclePhase</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -1426,29 +1413,29 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:Build</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>wpl:ReferenceProjectLife-cyclePhase</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -1456,29 +1443,29 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:Test</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>wpl:ReferenceProjectLife-cyclePhase</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -1486,29 +1473,29 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:Deploy</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>wpl:ReferenceProjectLife-cyclePhase</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -1516,29 +1503,29 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:Close</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>wpl:ReferenceProjectLife-cyclePhase</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -1546,16 +1533,16 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:AllProjectPhases</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="16"/>
       <c r="E33" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>wpl:ReferenceProjectLife-cyclePhase</v>
       </c>
       <c r="F33" s="3"/>
@@ -1570,11 +1557,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:ProductLife-cyclePhase</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="16"/>
@@ -1594,16 +1581,16 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:Conception</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="16"/>
       <c r="E35" s="4" t="str">
-        <f t="shared" ref="E35:E39" si="5">$A$34</f>
+        <f t="shared" ref="E35:E39" si="4">$A$34</f>
         <v>wpl:ProductLife-cyclePhase</v>
       </c>
       <c r="F35" s="3"/>
@@ -1618,16 +1605,16 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:Design</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="16"/>
       <c r="E36" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>wpl:ProductLife-cyclePhase</v>
       </c>
       <c r="F36" s="3"/>
@@ -1642,16 +1629,16 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:Realisation</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="16"/>
       <c r="E37" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>wpl:ProductLife-cyclePhase</v>
       </c>
       <c r="F37" s="3"/>
@@ -1666,16 +1653,16 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:Service</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="16"/>
       <c r="E38" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>wpl:ProductLife-cyclePhase</v>
       </c>
       <c r="F38" s="3"/>
@@ -1690,16 +1677,16 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:AllProductPhases</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="16"/>
       <c r="E39" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>wpl:ProductLife-cyclePhase</v>
       </c>
       <c r="F39" s="3"/>
@@ -1714,11 +1701,11 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:Process</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
@@ -1735,20 +1722,20 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:ProductProcess</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E41" s="4" t="str">
-        <f t="shared" ref="E41:E42" si="6">A40</f>
+        <f t="shared" ref="E41:E42" si="5">A40</f>
         <v>wpl:Process</v>
       </c>
       <c r="F41" s="3"/>
@@ -1763,16 +1750,16 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:WindTurbineProductProcess</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="16"/>
       <c r="E42" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>wpl:ProductProcess</v>
       </c>
       <c r="F42" s="3"/>
@@ -1787,11 +1774,11 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:WindPowerPlantProcess</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
@@ -1811,14 +1798,14 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:ProjectManagementProcess</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="4" t="str">
@@ -1837,17 +1824,17 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:SupportingProcess</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E45" s="4" t="str">
         <f>A40</f>
@@ -1865,14 +1852,14 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:ProcessGroup</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="4"/>
@@ -1880,11 +1867,11 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -1892,29 +1879,29 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:Initiation</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="4" t="str">
-        <f t="shared" ref="E47:E51" si="7">$A$46</f>
+        <f t="shared" ref="E47:E51" si="6">$A$46</f>
         <v>wpl:ProcessGroup</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -1922,29 +1909,29 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:Planning</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>wpl:ProcessGroup</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -1952,31 +1939,31 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:Execution</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E49" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>wpl:ProcessGroup</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -1984,29 +1971,29 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:Performance-Control</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>wpl:ProcessGroup</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -2014,29 +2001,29 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>wpl:Closure</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>wpl:ProcessGroup</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -2715,7 +2702,6 @@
     </row>
     <row r="145">
       <c r="A145" s="3"/>
-      <c r="B145" s="21"/>
     </row>
     <row r="146">
       <c r="A146" s="3"/>
@@ -2742,14 +2728,14 @@
     </row>
     <row r="153">
       <c r="A153" s="3" t="str">
-        <f t="shared" ref="A153:A154" si="8">IF(ISBLANK($B153),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B153," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
+        <f t="shared" ref="A153:A154" si="7">IF(ISBLANK($B153),"",$B$2 &amp; ":" &amp; (SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B153," ",""),"/","Div"),",","-"),"(","-"),")",""),"+","plus"),"--","-")," ",""),"&amp;","-")))</f>
         <v/>
       </c>
       <c r="B153" s="21"/>
     </row>
     <row r="154">
       <c r="A154" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
